--- a/epictrack-api/src/api/templates/event_templates/exemption_request/001_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/001_Exemption_Request.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aot\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E238C48D-FD6D-42D5-828D-D07C0DDD7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E25389-8E21-435D-BE5D-E40194146CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Events" sheetId="3" r:id="rId3"/>
     <sheet name="Outcomes" sheetId="4" r:id="rId4"/>
     <sheet name="Actions" sheetId="6" r:id="rId5"/>
-    <sheet name="Lookups" sheetId="2" r:id="rId6"/>
+    <sheet name="ActionBackup" sheetId="7" r:id="rId6"/>
+    <sheet name="Lookups" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="271">
   <si>
     <t>No</t>
   </si>
@@ -949,6 +950,84 @@
   </si>
   <si>
     <t>Create a new WORK: "EAC Assessment" and link to thisWorkLinkedProject</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>MANDATORY</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption Early Engagement","work_type_id": 5, "ea_act_id": 3, "event_name": "Approval of IPD/EP Submission", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption Request Intake","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of "Draft" Initial Project Description &amp; Engagement Plan", "start_at": 21 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption Request Intake","work_type_id": 5, "ea_act_id": 3, "event_name": "\"Draft\" Initial Project Description &amp; Engagement Plan Initial Review", "start_at": 28 }</t>
+  </si>
+  <si>
+    <t>{"all_future_phases":false}</t>
+  </si>
+  <si>
+    <t>{"work_state": "WITHDRAWN"}</t>
+  </si>
+  <si>
+    <t>{"is_active": false}</t>
+  </si>
+  <si>
+    <t>{"start_date_locked": true}</t>
+  </si>
+  <si>
+    <t>{"work_type":15}</t>
+  </si>
+  <si>
+    <t>{"work_state": "TERMINATED"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Start of DPD Development (Proponent Time) (Date Capture Milestone)", "start_at": 1}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Detailed Project Description Received", "start_at": 1}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Detailed Project Description", "start_at": 21 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "\"Draft\" Detailed Project Description Initial Review", "start_at": 28 }</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Decision: Readiness Decision" }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "new_name": "Exemption DPD Development (Proponent Time)", "legislated": false }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Exemption Readiness Decision", "legislated": false }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Start of DPD Development (Proponent Time) (Date Capture Milestone)", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>Set workState to COMPLETED</t>
+  </si>
+  <si>
+    <t>{"work_state": "COMPLETED"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Further Readiness Decision", "legislated": false }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Readiness Decision Report referred to CEAO for Further Decision", "start_at": 1}</t>
   </si>
 </sst>
 </file>
@@ -1602,13 +1681,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8789B1A8-4095-496B-ABDA-23EBF7B52DFC}">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,12 +1696,12 @@
     <col min="2" max="2" width="50.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" style="2" customWidth="1"/>
     <col min="4" max="5" width="14.77734375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="8" width="12.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,10 +1724,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1670,11 +1752,14 @@
       <c r="G2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1696,11 +1781,14 @@
       <c r="G3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1722,11 +1810,14 @@
       <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1748,11 +1839,14 @@
       <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1774,11 +1868,14 @@
       <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1800,35 +1897,38 @@
       <c r="G7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -2285,10 +2385,10 @@
   <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2301,8 +2401,7 @@
     <col min="7" max="7" width="32.77734375" style="2" customWidth="1"/>
     <col min="8" max="10" width="14.77734375" style="2" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="14.77734375" style="2" customWidth="1"/>
     <col min="14" max="14" width="10.77734375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -2342,7 +2441,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -2380,8 +2479,8 @@
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="8" t="b">
-        <v>1</v>
+      <c r="M2" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
@@ -2419,8 +2518,8 @@
       <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="8" t="b">
-        <v>1</v>
+      <c r="M3" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N3" s="3">
         <v>2</v>
@@ -2458,8 +2557,8 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="8" t="b">
-        <v>1</v>
+      <c r="M4" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N4" s="3">
         <v>3</v>
@@ -2500,8 +2599,8 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="8" t="b">
-        <v>1</v>
+      <c r="M5" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N5" s="3">
         <v>4</v>
@@ -2539,8 +2638,8 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="8" t="b">
-        <v>1</v>
+      <c r="M6" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N6" s="3">
         <v>5</v>
@@ -2578,8 +2677,8 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="8" t="b">
-        <v>1</v>
+      <c r="M7" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N7" s="3">
         <v>6</v>
@@ -2620,8 +2719,8 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="8" t="b">
-        <v>1</v>
+      <c r="M8" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N8" s="3">
         <v>7</v>
@@ -2662,8 +2761,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="8" t="b">
-        <v>1</v>
+      <c r="M9" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N9" s="3">
         <v>8</v>
@@ -2701,8 +2800,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="8" t="b">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N10" s="3">
         <v>9</v>
@@ -2743,8 +2842,8 @@
       <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="M11" s="8" t="b">
-        <v>0</v>
+      <c r="M11" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N11" s="3">
         <v>10</v>
@@ -2782,8 +2881,8 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="8" t="b">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N12" s="3">
         <v>11</v>
@@ -2821,8 +2920,8 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="8" t="b">
-        <v>1</v>
+      <c r="M13" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N13" s="3">
         <v>12</v>
@@ -2863,8 +2962,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="8" t="b">
-        <v>1</v>
+      <c r="M14" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N14" s="3">
         <v>13</v>
@@ -2905,8 +3004,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="8" t="b">
-        <v>1</v>
+      <c r="M15" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N15" s="3">
         <v>14</v>
@@ -2947,8 +3046,8 @@
       <c r="L16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="8" t="b">
-        <v>1</v>
+      <c r="M16" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N16" s="3">
         <v>15</v>
@@ -2986,8 +3085,8 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="8" t="b">
-        <v>1</v>
+      <c r="M17" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N17" s="3">
         <v>16</v>
@@ -3025,8 +3124,8 @@
       <c r="L18" s="3">
         <v>30</v>
       </c>
-      <c r="M18" s="8" t="b">
-        <v>1</v>
+      <c r="M18" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N18" s="3">
         <v>17</v>
@@ -3067,8 +3166,8 @@
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19" s="8" t="b">
-        <v>1</v>
+      <c r="M19" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N19" s="3">
         <v>18</v>
@@ -3109,8 +3208,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="8" t="b">
-        <v>1</v>
+      <c r="M20" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N20" s="3">
         <v>19</v>
@@ -3151,8 +3250,8 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="8" t="b">
-        <v>1</v>
+      <c r="M21" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N21" s="3">
         <v>20</v>
@@ -3193,8 +3292,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="8" t="b">
-        <v>1</v>
+      <c r="M22" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N22" s="3">
         <v>21</v>
@@ -3232,8 +3331,8 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="8" t="b">
-        <v>1</v>
+      <c r="M23" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N23" s="3">
         <v>22</v>
@@ -3274,8 +3373,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="8" t="b">
-        <v>1</v>
+      <c r="M24" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N24" s="3">
         <v>23</v>
@@ -3313,8 +3412,8 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="8" t="b">
-        <v>1</v>
+      <c r="M25" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N25" s="3">
         <v>24</v>
@@ -3355,8 +3454,8 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="8" t="b">
-        <v>1</v>
+      <c r="M26" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N26" s="3">
         <v>25</v>
@@ -3394,8 +3493,8 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="8" t="b">
-        <v>1</v>
+      <c r="M27" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N27" s="3">
         <v>26</v>
@@ -3433,8 +3532,8 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="8" t="b">
-        <v>1</v>
+      <c r="M28" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N28" s="3">
         <v>27</v>
@@ -3475,8 +3574,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="8" t="b">
-        <v>1</v>
+      <c r="M29" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N29" s="3">
         <v>28</v>
@@ -3514,8 +3613,8 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="8" t="b">
-        <v>0</v>
+      <c r="M30" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N30" s="3">
         <v>29</v>
@@ -3553,8 +3652,8 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="8" t="b">
-        <v>0</v>
+      <c r="M31" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N31" s="3">
         <v>30</v>
@@ -3595,8 +3694,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="8" t="b">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N32" s="3">
         <v>31</v>
@@ -3637,8 +3736,8 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="8" t="b">
-        <v>0</v>
+      <c r="M33" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N33" s="3">
         <v>32</v>
@@ -3679,8 +3778,8 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="8" t="b">
-        <v>0</v>
+      <c r="M34" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N34" s="3">
         <v>33</v>
@@ -3721,8 +3820,8 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="8" t="b">
-        <v>0</v>
+      <c r="M35" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N35" s="3">
         <v>34</v>
@@ -3760,8 +3859,8 @@
       <c r="L36" s="3">
         <v>30</v>
       </c>
-      <c r="M36" s="8" t="b">
-        <v>0</v>
+      <c r="M36" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N36" s="3">
         <v>35</v>
@@ -3802,8 +3901,8 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="8" t="b">
-        <v>0</v>
+      <c r="M37" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N37" s="3">
         <v>36</v>
@@ -3844,8 +3943,8 @@
       <c r="L38" s="3">
         <v>0</v>
       </c>
-      <c r="M38" s="8" t="b">
-        <v>0</v>
+      <c r="M38" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N38" s="3">
         <v>37</v>
@@ -3886,8 +3985,8 @@
       <c r="L39" s="3">
         <v>0</v>
       </c>
-      <c r="M39" s="8" t="b">
-        <v>0</v>
+      <c r="M39" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N39" s="3">
         <v>38</v>
@@ -3928,8 +4027,8 @@
       <c r="L40" s="3">
         <v>0</v>
       </c>
-      <c r="M40" s="8" t="b">
-        <v>0</v>
+      <c r="M40" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N40" s="3">
         <v>39</v>
@@ -3967,8 +4066,8 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="8" t="b">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N41" s="3">
         <v>40</v>
@@ -4006,8 +4105,8 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="8" t="b">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N42" s="3">
         <v>41</v>
@@ -4045,8 +4144,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="8" t="b">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N43" s="3">
         <v>42</v>
@@ -4087,8 +4186,8 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="8" t="b">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N44" s="3">
         <v>43</v>
@@ -4129,8 +4228,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="8" t="b">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N45" s="3">
         <v>44</v>
@@ -4168,8 +4267,8 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="8" t="b">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N46" s="3">
         <v>45</v>
@@ -4210,8 +4309,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="8" t="b">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N47" s="3">
         <v>46</v>
@@ -4252,8 +4351,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="8" t="b">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N48" s="3">
         <v>47</v>
@@ -4291,8 +4390,8 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="8" t="b">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N49" s="3">
         <v>48</v>
@@ -4333,8 +4432,8 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="8" t="b">
-        <v>0</v>
+      <c r="M50" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N50" s="3">
         <v>49</v>
@@ -4375,8 +4474,8 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="8" t="b">
-        <v>0</v>
+      <c r="M51" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N51" s="3">
         <v>50</v>
@@ -4414,8 +4513,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="8" t="b">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N52" s="3">
         <v>51</v>
@@ -4456,8 +4555,8 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="8" t="b">
-        <v>0</v>
+      <c r="M53" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N53" s="3">
         <v>52</v>
@@ -4498,8 +4597,8 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="8" t="b">
-        <v>0</v>
+      <c r="M54" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N54" s="3">
         <v>53</v>
@@ -4540,8 +4639,8 @@
       <c r="L55" s="3">
         <v>0</v>
       </c>
-      <c r="M55" s="8" t="b">
-        <v>0</v>
+      <c r="M55" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N55" s="3">
         <v>54</v>
@@ -4582,8 +4681,8 @@
       <c r="L56" s="3">
         <v>0</v>
       </c>
-      <c r="M56" s="8" t="b">
-        <v>0</v>
+      <c r="M56" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N56" s="3">
         <v>55</v>
@@ -4624,8 +4723,8 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="8" t="b">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N57" s="3">
         <v>56</v>
@@ -4666,8 +4765,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="8" t="b">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N58" s="3">
         <v>57</v>
@@ -4708,8 +4807,8 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="8" t="b">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N59" s="3">
         <v>58</v>
@@ -4750,8 +4849,8 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="8" t="b">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N60" s="3">
         <v>59</v>
@@ -4789,8 +4888,8 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="8" t="b">
-        <v>0</v>
+      <c r="M61" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N61" s="3">
         <v>60</v>
@@ -4831,8 +4930,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="8" t="b">
-        <v>1</v>
+      <c r="M62" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N62" s="3">
         <v>61</v>
@@ -4873,8 +4972,8 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="8" t="b">
-        <v>1</v>
+      <c r="M63" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N63" s="3">
         <v>62</v>
@@ -4915,8 +5014,8 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="8" t="b">
-        <v>1</v>
+      <c r="M64" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N64" s="3">
         <v>63</v>
@@ -4954,8 +5053,8 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="8" t="b">
-        <v>1</v>
+      <c r="M65" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N65" s="3">
         <v>64</v>
@@ -4993,8 +5092,8 @@
       <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="8" t="b">
-        <v>1</v>
+      <c r="M66" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N66" s="3">
         <v>65</v>
@@ -5032,8 +5131,8 @@
       <c r="L67" s="3">
         <v>0</v>
       </c>
-      <c r="M67" s="8" t="b">
-        <v>1</v>
+      <c r="M67" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N67" s="3">
         <v>66</v>
@@ -5074,8 +5173,8 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="8" t="b">
-        <v>1</v>
+      <c r="M68" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N68" s="3">
         <v>67</v>
@@ -5116,8 +5215,8 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="8" t="b">
-        <v>1</v>
+      <c r="M69" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N69" s="3">
         <v>68</v>
@@ -5155,8 +5254,8 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="8" t="b">
-        <v>0</v>
+      <c r="M70" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N70" s="3">
         <v>69</v>
@@ -5197,8 +5296,8 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="8" t="b">
-        <v>0</v>
+      <c r="M71" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N71" s="3">
         <v>70</v>
@@ -5239,8 +5338,8 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="8" t="b">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N72" s="3">
         <v>71</v>
@@ -5281,8 +5380,8 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="8" t="b">
-        <v>0</v>
+      <c r="M73" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N73" s="3">
         <v>72</v>
@@ -5323,8 +5422,8 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="8" t="b">
-        <v>0</v>
+      <c r="M74" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N74" s="3">
         <v>73</v>
@@ -5365,8 +5464,8 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="8" t="b">
-        <v>0</v>
+      <c r="M75" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N75" s="3">
         <v>74</v>
@@ -5407,8 +5506,8 @@
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="8" t="b">
-        <v>0</v>
+      <c r="M76" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N76" s="3">
         <v>75</v>
@@ -5449,8 +5548,8 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="8" t="b">
-        <v>0</v>
+      <c r="M77" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N77" s="3">
         <v>76</v>
@@ -5491,8 +5590,8 @@
       <c r="L78" s="3">
         <v>0</v>
       </c>
-      <c r="M78" s="8" t="b">
-        <v>0</v>
+      <c r="M78" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N78" s="3">
         <v>77</v>
@@ -5533,8 +5632,8 @@
       <c r="L79" s="3">
         <v>0</v>
       </c>
-      <c r="M79" s="8" t="b">
-        <v>0</v>
+      <c r="M79" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N79" s="3">
         <v>78</v>
@@ -5572,8 +5671,8 @@
       <c r="L80" s="3">
         <v>0</v>
       </c>
-      <c r="M80" s="8" t="b">
-        <v>0</v>
+      <c r="M80" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N80" s="3">
         <v>79</v>
@@ -5611,8 +5710,8 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="8" t="b">
-        <v>1</v>
+      <c r="M81" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N81" s="3">
         <v>80</v>
@@ -5650,8 +5749,8 @@
       <c r="L82" s="3">
         <v>0</v>
       </c>
-      <c r="M82" s="8" t="b">
-        <v>1</v>
+      <c r="M82" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N82" s="3">
         <v>81</v>
@@ -5692,8 +5791,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="8" t="b">
-        <v>1</v>
+      <c r="M83" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N83" s="3">
         <v>82</v>
@@ -5734,8 +5833,8 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="8" t="b">
-        <v>1</v>
+      <c r="M84" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N84" s="3">
         <v>83</v>
@@ -5773,8 +5872,8 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="8" t="b">
-        <v>1</v>
+      <c r="M85" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N85" s="3">
         <v>84</v>
@@ -5812,8 +5911,8 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="8" t="b">
-        <v>1</v>
+      <c r="M86" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N86" s="3">
         <v>85</v>
@@ -5854,8 +5953,8 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="8" t="b">
-        <v>1</v>
+      <c r="M87" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N87" s="3">
         <v>86</v>
@@ -5896,8 +5995,8 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="8" t="b">
-        <v>1</v>
+      <c r="M88" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N88" s="3">
         <v>87</v>
@@ -5938,8 +6037,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="8" t="b">
-        <v>1</v>
+      <c r="M89" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N89" s="3">
         <v>88</v>
@@ -5980,8 +6079,8 @@
       <c r="L90" s="3">
         <v>0</v>
       </c>
-      <c r="M90" s="8" t="b">
-        <v>1</v>
+      <c r="M90" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N90" s="3">
         <v>89</v>
@@ -6019,8 +6118,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="8" t="b">
-        <v>1</v>
+      <c r="M91" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N91" s="3">
         <v>90</v>
@@ -6058,8 +6157,8 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="8" t="b">
-        <v>0</v>
+      <c r="M92" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N92" s="3">
         <v>91</v>
@@ -6100,8 +6199,8 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="8" t="b">
-        <v>0</v>
+      <c r="M93" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N93" s="3">
         <v>92</v>
@@ -6142,8 +6241,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="8" t="b">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N94" s="3">
         <v>93</v>
@@ -6184,8 +6283,8 @@
       <c r="L95" s="3">
         <v>0</v>
       </c>
-      <c r="M95" s="8" t="b">
-        <v>0</v>
+      <c r="M95" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N95" s="3">
         <v>94</v>
@@ -6226,8 +6325,8 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="8" t="b">
-        <v>0</v>
+      <c r="M96" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N96" s="3">
         <v>95</v>
@@ -6268,8 +6367,8 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="8" t="b">
-        <v>0</v>
+      <c r="M97" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N97" s="3">
         <v>96</v>
@@ -6310,8 +6409,8 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="8" t="b">
-        <v>0</v>
+      <c r="M98" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N98" s="3">
         <v>97</v>
@@ -6352,8 +6451,8 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="8" t="b">
-        <v>0</v>
+      <c r="M99" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N99" s="3">
         <v>98</v>
@@ -6394,8 +6493,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="8" t="b">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N100" s="3">
         <v>99</v>
@@ -6436,8 +6535,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="8" t="b">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
@@ -6475,8 +6574,8 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="8" t="b">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N102" s="3">
         <v>101</v>
@@ -6514,8 +6613,8 @@
       <c r="L103" s="3">
         <v>0</v>
       </c>
-      <c r="M103" s="8" t="b">
-        <v>1</v>
+      <c r="M103" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N103" s="3">
         <v>102</v>
@@ -6553,8 +6652,8 @@
       <c r="L104" s="3">
         <v>0</v>
       </c>
-      <c r="M104" s="8" t="b">
-        <v>1</v>
+      <c r="M104" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N104" s="3">
         <v>103</v>
@@ -6592,8 +6691,8 @@
       <c r="L105" s="3">
         <v>0</v>
       </c>
-      <c r="M105" s="8" t="b">
-        <v>0</v>
+      <c r="M105" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N105" s="3">
         <v>104</v>
@@ -6634,8 +6733,8 @@
       <c r="L106" s="3">
         <v>0</v>
       </c>
-      <c r="M106" s="8" t="b">
-        <v>0</v>
+      <c r="M106" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N106" s="3">
         <v>105</v>
@@ -6676,8 +6775,8 @@
       <c r="L107" s="3">
         <v>0</v>
       </c>
-      <c r="M107" s="8" t="b">
-        <v>0</v>
+      <c r="M107" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N107" s="3">
         <v>106</v>
@@ -6718,8 +6817,8 @@
       <c r="L108" s="3">
         <v>0</v>
       </c>
-      <c r="M108" s="8" t="b">
-        <v>0</v>
+      <c r="M108" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N108" s="3">
         <v>107</v>
@@ -6760,8 +6859,8 @@
       <c r="L109" s="3">
         <v>0</v>
       </c>
-      <c r="M109" s="8" t="b">
-        <v>0</v>
+      <c r="M109" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N109" s="3">
         <v>108</v>
@@ -6802,8 +6901,8 @@
       <c r="L110" s="3">
         <v>0</v>
       </c>
-      <c r="M110" s="8" t="b">
-        <v>0</v>
+      <c r="M110" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N110" s="3">
         <v>109</v>
@@ -6844,8 +6943,8 @@
       <c r="L111" s="3">
         <v>0</v>
       </c>
-      <c r="M111" s="8" t="b">
-        <v>0</v>
+      <c r="M111" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N111" s="3">
         <v>110</v>
@@ -6883,8 +6982,8 @@
       <c r="L112" s="3">
         <v>0</v>
       </c>
-      <c r="M112" s="8" t="b">
-        <v>0</v>
+      <c r="M112" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N112" s="3">
         <v>111</v>
@@ -6925,8 +7024,8 @@
       <c r="L113" s="3">
         <v>0</v>
       </c>
-      <c r="M113" s="8" t="b">
-        <v>1</v>
+      <c r="M113" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N113" s="3">
         <v>112</v>
@@ -6967,8 +7066,8 @@
       <c r="L114" s="3">
         <v>0</v>
       </c>
-      <c r="M114" s="8" t="b">
-        <v>1</v>
+      <c r="M114" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N114" s="3">
         <v>113</v>
@@ -7006,8 +7105,8 @@
       <c r="L115" s="3">
         <v>0</v>
       </c>
-      <c r="M115" s="8" t="b">
-        <v>1</v>
+      <c r="M115" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N115" s="3">
         <v>114</v>
@@ -7045,8 +7144,8 @@
       <c r="L116" s="3">
         <v>0</v>
       </c>
-      <c r="M116" s="8" t="b">
-        <v>0</v>
+      <c r="M116" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N116" s="3">
         <v>115</v>
@@ -7087,8 +7186,8 @@
       <c r="L117" s="3">
         <v>0</v>
       </c>
-      <c r="M117" s="8" t="b">
-        <v>0</v>
+      <c r="M117" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N117" s="3">
         <v>116</v>
@@ -7129,8 +7228,8 @@
       <c r="L118" s="3">
         <v>0</v>
       </c>
-      <c r="M118" s="8" t="b">
-        <v>0</v>
+      <c r="M118" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N118" s="3">
         <v>117</v>
@@ -7171,8 +7270,8 @@
       <c r="L119" s="3">
         <v>0</v>
       </c>
-      <c r="M119" s="8" t="b">
-        <v>0</v>
+      <c r="M119" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N119" s="3">
         <v>118</v>
@@ -7213,8 +7312,8 @@
       <c r="L120" s="3">
         <v>0</v>
       </c>
-      <c r="M120" s="8" t="b">
-        <v>0</v>
+      <c r="M120" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N120" s="3">
         <v>119</v>
@@ -7255,8 +7354,8 @@
       <c r="L121" s="3">
         <v>0</v>
       </c>
-      <c r="M121" s="8" t="b">
-        <v>0</v>
+      <c r="M121" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N121" s="3">
         <v>120</v>
@@ -7297,8 +7396,8 @@
       <c r="L122" s="3">
         <v>0</v>
       </c>
-      <c r="M122" s="8" t="b">
-        <v>0</v>
+      <c r="M122" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N122" s="3">
         <v>121</v>
@@ -7336,8 +7435,8 @@
       <c r="L123" s="3">
         <v>0</v>
       </c>
-      <c r="M123" s="8" t="b">
-        <v>0</v>
+      <c r="M123" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="N123" s="3">
         <v>122</v>
@@ -7378,8 +7477,8 @@
       <c r="L124" s="3">
         <v>0</v>
       </c>
-      <c r="M124" s="8" t="b">
-        <v>1</v>
+      <c r="M124" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N124" s="3">
         <v>123</v>
@@ -7420,8 +7519,8 @@
       <c r="L125" s="3">
         <v>0</v>
       </c>
-      <c r="M125" s="8" t="b">
-        <v>1</v>
+      <c r="M125" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N125" s="3">
         <v>124</v>
@@ -7462,8 +7561,8 @@
       <c r="L126" s="3">
         <v>0</v>
       </c>
-      <c r="M126" s="8" t="b">
-        <v>1</v>
+      <c r="M126" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="N126" s="3">
         <v>125</v>
@@ -7481,13 +7580,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C94FEBB1-315A-4609-9BCC-2B9E16A284E8}">
-          <x14:formula1>
-            <xm:f>Lookups!$M$3:$M$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>M2:M126</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52DB5617-9AC6-42B3-A0A1-82418CF13405}">
           <x14:formula1>
             <xm:f>Lookups!$K$3:$K$9</xm:f>
@@ -7532,7 +7625,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9010,13 +9103,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9072,7 +9165,7 @@
         <v>211</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -9096,7 +9189,7 @@
         <v>213</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -9120,7 +9213,7 @@
         <v>214</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -9144,7 +9237,7 @@
         <v>216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -9152,7 +9245,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>3</v>
@@ -9161,22 +9254,22 @@
         <f>IF((B6=""),"",VLOOKUP(B6,Outcomes!$A$2:$D$101,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
-      <c r="D6" t="s">
-        <v>217</v>
+      <c r="D6" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8">
         <v>3</v>
@@ -9186,93 +9279,93 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>IF((B8=""),"",VLOOKUP(B8,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Starts the "clock" for EAC Assessment</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="G8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>IF((B9=""),"",VLOOKUP(B9,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Starts the "clock" for EAC Assessment</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="G9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>IF((B10=""),"",VLOOKUP(B10,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8">
         <v>6</v>
@@ -9282,21 +9375,21 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="G11" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8">
         <v>6</v>
@@ -9305,70 +9398,70 @@
         <f>IF((B12=""),"",VLOOKUP(B12,Outcomes!$A$2:$D$101,4,FALSE))</f>
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D12" t="s">
-        <v>217</v>
+      <c r="D12" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G12" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>IF((B13=""),"",VLOOKUP(B13,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G13" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6" t="str">
         <f>IF((B14=""),"",VLOOKUP(B14,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="G14" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8">
         <v>7</v>
@@ -9378,220 +9471,220 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G15" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>IF((B16=""),"",VLOOKUP(B16,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>218</v>
+        <v>End of Early Engagement PHASE, start of DPD Development (Proponent Time) PHASE</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="G16" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>220</v>
+        <v>Draft Detailed Project Description Initial Review is POSITIVE</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="G17" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" s="6" t="str">
         <f>IF((B18=""),"",VLOOKUP(B18,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>222</v>
+        <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G18" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>End of Early Engagement PHASE, start of DPD Development (Proponent Time) PHASE</v>
+        <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="G19" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" s="6" t="str">
         <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Draft Detailed Project Description Initial Review is POSITIVE</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>229</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="G20" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" s="6" t="str">
         <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>230</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G21" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>231</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="G22" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G23" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>215</v>
@@ -9600,354 +9693,354 @@
         <v>216</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G24" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="6" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D25" t="s">
-        <v>217</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="G25" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="6" t="str">
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G26" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B27" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27" s="6" t="str">
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>221</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G27" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B28" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>216</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>263</v>
       </c>
       <c r="G28" s="3">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="6" t="str">
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D29" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>218</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="G29" s="3">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="6" t="str">
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>220</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="G30" s="3">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B31" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="6" t="str">
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>222</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="G31" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B32" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="6" t="str">
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D32" t="s">
-        <v>217</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="G32" s="3">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B33" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33" s="6" t="str">
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>237</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G33" s="3">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B34" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C34" s="6" t="str">
         <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>233</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="G34" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B35" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C35" s="6" t="str">
         <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>234</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>222</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G35" s="3">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B36" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C36" s="6" t="str">
         <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>235</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G36" s="3">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B37" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37" s="6" t="str">
         <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project is Referred to Minister for Exemption</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>239</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>220</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="G37" s="3">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B38" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C38" s="6" t="str">
         <f>IF((B38=""),"",VLOOKUP(B38,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G38" s="3">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B39" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C39" s="6" t="str">
         <f>IF((B39=""),"",VLOOKUP(B39,Outcomes!$A$2:$D$101,4,FALSE))</f>
@@ -9960,166 +10053,166 @@
         <v>216</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G39" s="3">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B40" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C40" s="6" t="str">
         <f>IF((B40=""),"",VLOOKUP(B40,Outcomes!$A$2:$D$101,4,FALSE))</f>
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D40" t="s">
-        <v>217</v>
+      <c r="D40" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="G40" s="3">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B41" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C41" s="6" t="str">
         <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$101,4,FALSE))</f>
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G41" s="3">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B42" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C42" s="6" t="str">
         <f>IF((B42=""),"",VLOOKUP(B42,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G42" s="3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C43" s="6" t="str">
         <f>IF((B43=""),"",VLOOKUP(B43,Outcomes!$A$2:$D$101,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="G43" s="3">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B44" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C44" s="6" t="str">
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$101,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
-      <c r="D44" t="s">
-        <v>217</v>
+      <c r="D44" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G44" s="3">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B45" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C45" s="6" t="str">
         <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Project is Exempt from Requiring an EAC</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>219</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="G45" s="3">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B46" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C46" s="6" t="str">
         <f>IF((B46=""),"",VLOOKUP(B46,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Project is Exempt from Requiring an EAC</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>221</v>
@@ -10128,162 +10221,162 @@
         <v>222</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G46" s="3">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B47" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C47" s="6" t="str">
         <f>IF((B47=""),"",VLOOKUP(B47,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>216</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>66</v>
+        <v>269</v>
       </c>
       <c r="G47" s="3">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B48" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C48" s="6" t="str">
         <f>IF((B48=""),"",VLOOKUP(B48,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D48" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>218</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="G48" s="3">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B49" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C49" s="6" t="str">
         <f>IF((B49=""),"",VLOOKUP(B49,Outcomes!$A$2:$D$101,4,FALSE))</f>
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G49" s="3">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B50" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C50" s="6" t="str">
         <f>IF((B50=""),"",VLOOKUP(B50,Outcomes!$A$2:$D$101,4,FALSE))</f>
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="G50" s="3">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B51" s="8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C51" s="6" t="str">
         <f>IF((B51=""),"",VLOOKUP(B51,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G51" s="3">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B52" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C52" s="6" t="str">
         <f>IF((B52=""),"",VLOOKUP(B52,Outcomes!$A$2:$D$101,4,FALSE))</f>
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
-      <c r="D52" t="s">
-        <v>217</v>
+      <c r="D52" s="29" t="s">
+        <v>215</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="G52" s="3">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B53" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C53" s="6" t="str">
         <f>IF((B53=""),"",VLOOKUP(B53,Outcomes!$A$2:$D$101,4,FALSE))</f>
@@ -10296,18 +10389,18 @@
         <v>220</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="G53" s="3">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B54" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C54" s="6" t="str">
         <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$101,4,FALSE))</f>
@@ -10320,417 +10413,129 @@
         <v>222</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G54" s="3">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B55" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C55" s="6" t="str">
         <f>IF((B55=""),"",VLOOKUP(B55,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project is Exempt from Requiring an EAC</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>241</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" s="3">
         <v>66</v>
-      </c>
-      <c r="G55" s="3">
-        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B56" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C56" s="6" t="str">
         <f>IF((B56=""),"",VLOOKUP(B56,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project is Exempt from Requiring an EAC</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>222</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="G56" s="3">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B57" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C57" s="6" t="str">
         <f>IF((B57=""),"",VLOOKUP(B57,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
+        <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="G57" s="3">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B58" s="8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C58" s="6" t="str">
         <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
+        <v>Project moves to Process Planning</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G58" s="3">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B59" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C59" s="6" t="str">
         <f>IF((B59=""),"",VLOOKUP(B59,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>216</v>
+        <v>Project moves to Process Planning</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G59" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="8">
-        <v>23</v>
-      </c>
-      <c r="C60" s="6" t="str">
-        <f>IF((B60=""),"",VLOOKUP(B60,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D60" t="s">
-        <v>217</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8">
-        <v>23</v>
-      </c>
-      <c r="C61" s="6" t="str">
-        <f>IF((B61=""),"",VLOOKUP(B61,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8">
-        <v>23</v>
-      </c>
-      <c r="C62" s="6" t="str">
-        <f>IF((B62=""),"",VLOOKUP(B62,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8">
-        <v>24</v>
-      </c>
-      <c r="C63" s="6" t="str">
-        <f>IF((B63=""),"",VLOOKUP(B63,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="B64" s="8">
-        <v>24</v>
-      </c>
-      <c r="C64" s="6" t="str">
-        <f>IF((B64=""),"",VLOOKUP(B64,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D64" t="s">
-        <v>217</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
-      <c r="B65" s="8">
-        <v>24</v>
-      </c>
-      <c r="C65" s="6" t="str">
-        <f>IF((B65=""),"",VLOOKUP(B65,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G65" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="8">
-        <v>24</v>
-      </c>
-      <c r="C66" s="6" t="str">
-        <f>IF((B66=""),"",VLOOKUP(B66,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8">
-        <v>25</v>
-      </c>
-      <c r="C67" s="6" t="str">
-        <f>IF((B67=""),"",VLOOKUP(B67,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G67" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
-      <c r="B68" s="8">
-        <v>25</v>
-      </c>
-      <c r="C68" s="6" t="str">
-        <f>IF((B68=""),"",VLOOKUP(B68,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G68" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
-      <c r="B69" s="8">
-        <v>25</v>
-      </c>
-      <c r="C69" s="6" t="str">
-        <f>IF((B69=""),"",VLOOKUP(B69,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G69" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>69</v>
-      </c>
-      <c r="B70" s="8">
-        <v>26</v>
-      </c>
-      <c r="C70" s="6" t="str">
-        <f>IF((B70=""),"",VLOOKUP(B70,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project moves to Process Planning</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G70" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
-        <v>70</v>
-      </c>
-      <c r="B71" s="8">
-        <v>26</v>
-      </c>
-      <c r="C71" s="6" t="str">
-        <f>IF((B71=""),"",VLOOKUP(B71,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project moves to Process Planning</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G71" s="3">
         <v>70</v>
       </c>
     </row>
@@ -10743,7 +10548,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B71</xm:sqref>
+          <xm:sqref>B2:B59</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10752,6 +10557,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB645B-9832-43C9-93CA-B4DC05EC6BC0}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="str">
+        <f>IF((B1=""),"",VLOOKUP(B1,Outcomes!$A$2:$D$101,4,FALSE))</f>
+        <v>Project is Referred to Minister for Exemption</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD376E2D-0D02-46B5-8EB4-1C59799E70C5}">
+          <x14:formula1>
+            <xm:f>Outcomes!$A$2:$A$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE27281F-AEB4-48A9-B0E8-27AC02018115}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>

--- a/epictrack-api/src/api/templates/event_templates/exemption_request/001_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/001_Exemption_Request.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E25389-8E21-435D-BE5D-E40194146CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC74BE90-31EE-4460-8EE8-9BB845619487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="274">
   <si>
     <t>No</t>
   </si>
@@ -940,9 +940,6 @@
     <t>Last Day of Exemption Request Readiness Decision (Date Capture Milestone)</t>
   </si>
   <si>
-    <t>Set workState to COMPLETE</t>
-  </si>
-  <si>
     <t>Set "Further Readiness Decision" PHASE to ACTIVE (show it)</t>
   </si>
   <si>
@@ -967,9 +964,6 @@
     <t>{"phase_name":"Exemption Early Engagement","work_type_id": 5, "ea_act_id": 3, "event_name": "Approval of IPD/EP Submission", "start_at": 1 }</t>
   </si>
   <si>
-    <t>{"phase_name":"Exemption Request Intake","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of "Draft" Initial Project Description &amp; Engagement Plan", "start_at": 21 }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Exemption Request Intake","work_type_id": 5, "ea_act_id": 3, "event_name": "\"Draft\" Initial Project Description &amp; Engagement Plan Initial Review", "start_at": 28 }</t>
   </si>
   <si>
@@ -1028,6 +1022,21 @@
   </si>
   <si>
     <t>{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Readiness Decision Report referred to CEAO for Further Decision", "start_at": 1}</t>
+  </si>
+  <si>
+    <t>{"work_type": 6}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "new_name": "Revised Exemption DPD Development (Proponent Time)", "legislated": false }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Revised Exemption Readiness Decision", "legislated": false }</t>
+  </si>
+  <si>
+    <t>Exemption Order</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption Request Intake","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Initial Project Description &amp; Engagement Plan", "start_at": 21 }</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1696,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1724,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1738,7 +1747,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -1753,7 +1762,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1767,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
@@ -1782,7 +1791,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -1796,7 +1805,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -1811,7 +1820,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -1825,7 +1834,7 @@
         <v>111</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -1840,7 +1849,7 @@
         <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -1854,7 +1863,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -1869,7 +1878,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I6" s="3">
         <v>5</v>
@@ -1883,7 +1892,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -1898,7 +1907,7 @@
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
@@ -2385,7 +2394,7 @@
   <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
@@ -2441,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -2480,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
@@ -2519,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N3" s="3">
         <v>2</v>
@@ -2558,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N4" s="3">
         <v>3</v>
@@ -2600,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N5" s="3">
         <v>4</v>
@@ -2639,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N6" s="3">
         <v>5</v>
@@ -2678,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N7" s="3">
         <v>6</v>
@@ -2720,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N8" s="3">
         <v>7</v>
@@ -2762,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N9" s="3">
         <v>8</v>
@@ -2801,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N10" s="3">
         <v>9</v>
@@ -2843,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N11" s="3">
         <v>10</v>
@@ -2882,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N12" s="3">
         <v>11</v>
@@ -2921,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N13" s="3">
         <v>12</v>
@@ -2963,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N14" s="3">
         <v>13</v>
@@ -3005,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N15" s="3">
         <v>14</v>
@@ -3047,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N16" s="3">
         <v>15</v>
@@ -3086,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N17" s="3">
         <v>16</v>
@@ -3125,7 +3134,7 @@
         <v>30</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N18" s="3">
         <v>17</v>
@@ -3167,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N19" s="3">
         <v>18</v>
@@ -3209,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N20" s="3">
         <v>19</v>
@@ -3251,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N21" s="3">
         <v>20</v>
@@ -3293,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N22" s="3">
         <v>21</v>
@@ -3332,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N23" s="3">
         <v>22</v>
@@ -3374,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N24" s="3">
         <v>23</v>
@@ -3413,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N25" s="3">
         <v>24</v>
@@ -3455,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N26" s="3">
         <v>25</v>
@@ -3494,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N27" s="3">
         <v>26</v>
@@ -3533,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N28" s="3">
         <v>27</v>
@@ -3575,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N29" s="3">
         <v>28</v>
@@ -3614,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N30" s="3">
         <v>29</v>
@@ -3653,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N31" s="3">
         <v>30</v>
@@ -3695,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N32" s="3">
         <v>31</v>
@@ -3737,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N33" s="3">
         <v>32</v>
@@ -3779,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N34" s="3">
         <v>33</v>
@@ -3821,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N35" s="3">
         <v>34</v>
@@ -3860,7 +3869,7 @@
         <v>30</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N36" s="3">
         <v>35</v>
@@ -3902,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N37" s="3">
         <v>36</v>
@@ -3944,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N38" s="3">
         <v>37</v>
@@ -3986,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N39" s="3">
         <v>38</v>
@@ -4028,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N40" s="3">
         <v>39</v>
@@ -4067,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N41" s="3">
         <v>40</v>
@@ -4106,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N42" s="3">
         <v>41</v>
@@ -4145,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N43" s="3">
         <v>42</v>
@@ -4187,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N44" s="3">
         <v>43</v>
@@ -4229,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N45" s="3">
         <v>44</v>
@@ -4268,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N46" s="3">
         <v>45</v>
@@ -4310,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N47" s="3">
         <v>46</v>
@@ -4352,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N48" s="3">
         <v>47</v>
@@ -4391,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N49" s="3">
         <v>48</v>
@@ -4433,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N50" s="3">
         <v>49</v>
@@ -4475,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N51" s="3">
         <v>50</v>
@@ -4514,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N52" s="3">
         <v>51</v>
@@ -4556,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N53" s="3">
         <v>52</v>
@@ -4598,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N54" s="3">
         <v>53</v>
@@ -4640,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N55" s="3">
         <v>54</v>
@@ -4682,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N56" s="3">
         <v>55</v>
@@ -4724,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N57" s="3">
         <v>56</v>
@@ -4766,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N58" s="3">
         <v>57</v>
@@ -4808,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N59" s="3">
         <v>58</v>
@@ -4850,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N60" s="3">
         <v>59</v>
@@ -4889,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N61" s="3">
         <v>60</v>
@@ -4931,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N62" s="3">
         <v>61</v>
@@ -4973,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N63" s="3">
         <v>62</v>
@@ -5015,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N64" s="3">
         <v>63</v>
@@ -5054,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N65" s="3">
         <v>64</v>
@@ -5093,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N66" s="3">
         <v>65</v>
@@ -5132,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N67" s="3">
         <v>66</v>
@@ -5174,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N68" s="3">
         <v>67</v>
@@ -5216,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N69" s="3">
         <v>68</v>
@@ -5255,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N70" s="3">
         <v>69</v>
@@ -5297,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N71" s="3">
         <v>70</v>
@@ -5339,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N72" s="3">
         <v>71</v>
@@ -5381,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N73" s="3">
         <v>72</v>
@@ -5423,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N74" s="3">
         <v>73</v>
@@ -5465,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N75" s="3">
         <v>74</v>
@@ -5507,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N76" s="3">
         <v>75</v>
@@ -5549,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N77" s="3">
         <v>76</v>
@@ -5591,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N78" s="3">
         <v>77</v>
@@ -5633,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N79" s="3">
         <v>78</v>
@@ -5672,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N80" s="3">
         <v>79</v>
@@ -5711,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N81" s="3">
         <v>80</v>
@@ -5750,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N82" s="3">
         <v>81</v>
@@ -5792,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N83" s="3">
         <v>82</v>
@@ -5834,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N84" s="3">
         <v>83</v>
@@ -5873,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N85" s="3">
         <v>84</v>
@@ -5912,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N86" s="3">
         <v>85</v>
@@ -5954,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N87" s="3">
         <v>86</v>
@@ -5996,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N88" s="3">
         <v>87</v>
@@ -6038,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N89" s="3">
         <v>88</v>
@@ -6080,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N90" s="3">
         <v>89</v>
@@ -6119,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N91" s="3">
         <v>90</v>
@@ -6158,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N92" s="3">
         <v>91</v>
@@ -6200,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N93" s="3">
         <v>92</v>
@@ -6242,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N94" s="3">
         <v>93</v>
@@ -6284,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N95" s="3">
         <v>94</v>
@@ -6326,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N96" s="3">
         <v>95</v>
@@ -6368,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N97" s="3">
         <v>96</v>
@@ -6410,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N98" s="3">
         <v>97</v>
@@ -6452,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N99" s="3">
         <v>98</v>
@@ -6494,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N100" s="3">
         <v>99</v>
@@ -6536,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
@@ -6575,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N102" s="3">
         <v>101</v>
@@ -6614,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N103" s="3">
         <v>102</v>
@@ -6653,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N104" s="3">
         <v>103</v>
@@ -6692,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N105" s="3">
         <v>104</v>
@@ -6734,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N106" s="3">
         <v>105</v>
@@ -6776,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N107" s="3">
         <v>106</v>
@@ -6818,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N108" s="3">
         <v>107</v>
@@ -6860,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N109" s="3">
         <v>108</v>
@@ -6902,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N110" s="3">
         <v>109</v>
@@ -6944,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N111" s="3">
         <v>110</v>
@@ -6983,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N112" s="3">
         <v>111</v>
@@ -7025,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N113" s="3">
         <v>112</v>
@@ -7067,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N114" s="3">
         <v>113</v>
@@ -7106,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N115" s="3">
         <v>114</v>
@@ -7145,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N116" s="3">
         <v>115</v>
@@ -7187,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N117" s="3">
         <v>116</v>
@@ -7229,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N118" s="3">
         <v>117</v>
@@ -7271,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N119" s="3">
         <v>118</v>
@@ -7313,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N120" s="3">
         <v>119</v>
@@ -7355,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N121" s="3">
         <v>120</v>
@@ -7397,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N122" s="3">
         <v>121</v>
@@ -7436,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N123" s="3">
         <v>122</v>
@@ -7478,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N124" s="3">
         <v>123</v>
@@ -7520,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N125" s="3">
         <v>124</v>
@@ -7562,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N126" s="3">
         <v>125</v>
@@ -9106,10 +9115,10 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9165,7 +9174,7 @@
         <v>211</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -9189,7 +9198,7 @@
         <v>213</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -9213,7 +9222,7 @@
         <v>214</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -9237,7 +9246,7 @@
         <v>216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -9261,7 +9270,7 @@
         <v>220</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="3">
         <v>6</v>
@@ -9285,7 +9294,7 @@
         <v>222</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G7" s="3">
         <v>7</v>
@@ -9309,7 +9318,7 @@
         <v>224</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
@@ -9333,7 +9342,7 @@
         <v>226</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G9" s="3">
         <v>9</v>
@@ -9357,7 +9366,7 @@
         <v>216</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -9381,7 +9390,7 @@
         <v>227</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G11" s="3">
         <v>12</v>
@@ -9405,7 +9414,7 @@
         <v>222</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="3">
         <v>13</v>
@@ -9429,7 +9438,7 @@
         <v>216</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G13" s="3">
         <v>14</v>
@@ -9453,7 +9462,7 @@
         <v>220</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G14" s="3">
         <v>16</v>
@@ -9477,7 +9486,7 @@
         <v>222</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="3">
         <v>17</v>
@@ -9501,7 +9510,7 @@
         <v>228</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G16" s="3">
         <v>18</v>
@@ -9525,7 +9534,7 @@
         <v>229</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G17" s="3">
         <v>19</v>
@@ -9549,7 +9558,7 @@
         <v>230</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G18" s="3">
         <v>20</v>
@@ -9573,7 +9582,7 @@
         <v>231</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G19" s="3">
         <v>21</v>
@@ -9597,7 +9606,7 @@
         <v>226</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G20" s="3">
         <v>22</v>
@@ -9621,7 +9630,7 @@
         <v>216</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G21" s="3">
         <v>23</v>
@@ -9645,7 +9654,7 @@
         <v>227</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G22" s="3">
         <v>25</v>
@@ -9669,7 +9678,7 @@
         <v>222</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G23" s="3">
         <v>26</v>
@@ -9693,7 +9702,7 @@
         <v>216</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G24" s="3">
         <v>27</v>
@@ -9717,7 +9726,7 @@
         <v>220</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G25" s="3">
         <v>29</v>
@@ -9741,7 +9750,7 @@
         <v>222</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G26" s="3">
         <v>30</v>
@@ -9765,7 +9774,7 @@
         <v>218</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G27" s="3">
         <v>31</v>
@@ -9789,7 +9798,7 @@
         <v>237</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G28" s="3">
         <v>32</v>
@@ -9813,7 +9822,7 @@
         <v>233</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G29" s="3">
         <v>33</v>
@@ -9837,7 +9846,7 @@
         <v>234</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G30" s="3">
         <v>34</v>
@@ -9861,7 +9870,7 @@
         <v>235</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G31" s="3">
         <v>35</v>
@@ -9885,7 +9894,7 @@
         <v>226</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G32" s="3">
         <v>37</v>
@@ -9909,7 +9918,7 @@
         <v>216</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G33" s="3">
         <v>38</v>
@@ -9933,7 +9942,7 @@
         <v>227</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G34" s="3">
         <v>40</v>
@@ -9957,7 +9966,7 @@
         <v>222</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G35" s="3">
         <v>41</v>
@@ -9981,7 +9990,7 @@
         <v>216</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G36" s="3">
         <v>42</v>
@@ -10005,7 +10014,7 @@
         <v>220</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G37" s="3">
         <v>44</v>
@@ -10029,7 +10038,7 @@
         <v>222</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G38" s="3">
         <v>45</v>
@@ -10053,7 +10062,7 @@
         <v>216</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G39" s="3">
         <v>46</v>
@@ -10077,7 +10086,7 @@
         <v>227</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G40" s="3">
         <v>48</v>
@@ -10101,7 +10110,7 @@
         <v>222</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G41" s="3">
         <v>49</v>
@@ -10125,7 +10134,7 @@
         <v>216</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G42" s="3">
         <v>50</v>
@@ -10149,7 +10158,7 @@
         <v>220</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G43" s="3">
         <v>52</v>
@@ -10173,7 +10182,7 @@
         <v>222</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G44" s="3">
         <v>53</v>
@@ -10194,10 +10203,10 @@
         <v>219</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G45" s="3">
         <v>54</v>
@@ -10221,7 +10230,7 @@
         <v>222</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G46" s="3">
         <v>55</v>
@@ -10242,10 +10251,10 @@
         <v>232</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G47" s="3">
         <v>56</v>
@@ -10266,10 +10275,10 @@
         <v>210</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G48" s="3">
         <v>57</v>
@@ -10293,7 +10302,7 @@
         <v>216</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G49" s="3">
         <v>58</v>
@@ -10317,7 +10326,7 @@
         <v>227</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G50" s="3">
         <v>60</v>
@@ -10341,7 +10350,7 @@
         <v>222</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G51" s="3">
         <v>61</v>
@@ -10365,7 +10374,7 @@
         <v>216</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G52" s="3">
         <v>62</v>
@@ -10389,7 +10398,7 @@
         <v>220</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G53" s="3">
         <v>64</v>
@@ -10413,7 +10422,7 @@
         <v>222</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G54" s="3">
         <v>65</v>
@@ -10437,7 +10446,7 @@
         <v>233</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G55" s="3">
         <v>66</v>
@@ -10461,7 +10470,7 @@
         <v>234</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G56" s="3">
         <v>67</v>
@@ -10485,7 +10494,7 @@
         <v>235</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G57" s="3">
         <v>68</v>
@@ -10506,10 +10515,10 @@
         <v>219</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="G58" s="3">
         <v>69</v>
@@ -10530,10 +10539,10 @@
         <v>225</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>66</v>
+        <v>269</v>
       </c>
       <c r="G59" s="3">
         <v>70</v>

--- a/epictrack-api/src/api/templates/event_templates/exemption_request/001_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/001_Exemption_Request.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC74BE90-31EE-4460-8EE8-9BB845619487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CAA68F-6AC4-4C54-8096-73C5458CFAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="ActionBackup" sheetId="7" r:id="rId6"/>
     <sheet name="Lookups" sheetId="2" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Events!$A$1:$N$124</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="272">
   <si>
     <t>No</t>
   </si>
@@ -685,16 +688,10 @@
     <t>Time Limit Extended Milestone Bullet</t>
   </si>
   <si>
-    <t>s.45 Suspension of the Exemption Request Process</t>
-  </si>
-  <si>
     <t>Exemption Request Process Suspension Announcement &amp; Tweet</t>
   </si>
   <si>
     <t>Exemption Request Process Suspended Milestone Bullet</t>
-  </si>
-  <si>
-    <t>s.45 Resumption of the Exemption Request Process</t>
   </si>
   <si>
     <t>Exemption Request Process Resumption Announcement &amp; Tweet</t>
@@ -1733,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1747,7 +1744,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -1762,7 +1759,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1776,7 +1773,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
@@ -1791,7 +1788,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -1805,7 +1802,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -1820,7 +1817,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -1834,7 +1831,7 @@
         <v>111</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -1849,7 +1846,7 @@
         <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -1863,7 +1860,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -1878,7 +1875,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I6" s="3">
         <v>5</v>
@@ -1892,7 +1889,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -1907,7 +1904,7 @@
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
@@ -2391,13 +2388,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2450,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -2489,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
@@ -2528,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N3" s="3">
         <v>2</v>
@@ -2567,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N4" s="3">
         <v>3</v>
@@ -2609,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N5" s="3">
         <v>4</v>
@@ -2648,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N6" s="3">
         <v>5</v>
@@ -2687,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N7" s="3">
         <v>6</v>
@@ -2729,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N8" s="3">
         <v>7</v>
@@ -2737,7 +2734,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -2771,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N9" s="3">
         <v>8</v>
@@ -2810,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N10" s="3">
         <v>9</v>
@@ -2818,7 +2815,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
@@ -2852,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N11" s="3">
         <v>10</v>
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N12" s="3">
         <v>11</v>
@@ -2930,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N13" s="3">
         <v>12</v>
@@ -2938,7 +2935,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
@@ -2972,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N14" s="3">
         <v>13</v>
@@ -3014,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N15" s="3">
         <v>14</v>
@@ -3056,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N16" s="3">
         <v>15</v>
@@ -3095,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N17" s="3">
         <v>16</v>
@@ -3134,7 +3131,7 @@
         <v>30</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N18" s="3">
         <v>17</v>
@@ -3176,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N19" s="3">
         <v>18</v>
@@ -3218,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N20" s="3">
         <v>19</v>
@@ -3260,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N21" s="3">
         <v>20</v>
@@ -3296,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N22" s="3">
         <v>21</v>
@@ -3341,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N23" s="3">
         <v>22</v>
@@ -3383,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N24" s="3">
         <v>23</v>
@@ -3422,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N25" s="3">
         <v>24</v>
@@ -3464,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N26" s="3">
         <v>25</v>
@@ -3503,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N27" s="3">
         <v>26</v>
@@ -3542,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N28" s="3">
         <v>27</v>
@@ -3584,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N29" s="3">
         <v>28</v>
@@ -3623,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N30" s="3">
         <v>29</v>
@@ -3662,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N31" s="3">
         <v>30</v>
@@ -3704,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N32" s="3">
         <v>31</v>
@@ -3712,7 +3709,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B33" s="3">
         <v>32</v>
@@ -3746,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N33" s="3">
         <v>32</v>
@@ -3788,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N34" s="3">
         <v>33</v>
@@ -3830,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N35" s="3">
         <v>34</v>
@@ -3869,7 +3866,7 @@
         <v>30</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N36" s="3">
         <v>35</v>
@@ -3911,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N37" s="3">
         <v>36</v>
@@ -3953,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N38" s="3">
         <v>37</v>
@@ -3995,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N39" s="3">
         <v>38</v>
@@ -4031,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N40" s="3">
         <v>39</v>
@@ -4076,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N41" s="3">
         <v>40</v>
@@ -4115,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N42" s="3">
         <v>41</v>
@@ -4154,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N43" s="3">
         <v>42</v>
@@ -4196,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N44" s="3">
         <v>43</v>
@@ -4238,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N45" s="3">
         <v>44</v>
@@ -4277,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N46" s="3">
         <v>45</v>
@@ -4319,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N47" s="3">
         <v>46</v>
@@ -4361,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N48" s="3">
         <v>47</v>
@@ -4369,12 +4366,15 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
+        <v>49</v>
+      </c>
+      <c r="C49" s="3">
         <v>48</v>
       </c>
       <c r="D49" s="8">
         <v>2</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="20" t="s">
         <v>156</v>
       </c>
       <c r="F49" s="6" t="str">
@@ -4382,10 +4382,10 @@
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>98</v>
@@ -4400,15 +4400,15 @@
         <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N49" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="3">
         <v>48</v>
@@ -4416,7 +4416,7 @@
       <c r="D50" s="8">
         <v>2</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="21" t="s">
         <v>157</v>
       </c>
       <c r="F50" s="6" t="str">
@@ -4424,7 +4424,7 @@
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>35</v>
@@ -4442,23 +4442,23 @@
         <v>0</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N50" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C51" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D51" s="8">
         <v>2</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="20" t="s">
         <v>158</v>
       </c>
       <c r="F51" s="6" t="str">
@@ -4466,7 +4466,7 @@
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>35</v>
@@ -4484,20 +4484,23 @@
         <v>0</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N51" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
+        <v>53</v>
+      </c>
+      <c r="C52" s="3">
         <v>51</v>
       </c>
       <c r="D52" s="8">
         <v>2</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="21" t="s">
         <v>159</v>
       </c>
       <c r="F52" s="6" t="str">
@@ -4505,10 +4508,10 @@
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>98</v>
@@ -4523,23 +4526,23 @@
         <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N52" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B53" s="3">
-        <v>52</v>
-      </c>
-      <c r="C53" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D53" s="8">
         <v>2</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="19" t="s">
         <v>160</v>
       </c>
       <c r="F53" s="6" t="str">
@@ -4547,10 +4550,10 @@
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>98</v>
@@ -4565,23 +4568,23 @@
         <v>0</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N53" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D54" s="8">
         <v>2</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="20" t="s">
         <v>161</v>
       </c>
       <c r="F54" s="6" t="str">
@@ -4589,7 +4592,7 @@
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>35</v>
@@ -4607,23 +4610,23 @@
         <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N54" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B55" s="3">
+        <v>56</v>
+      </c>
+      <c r="C55" s="3">
         <v>54</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="21" t="s">
         <v>162</v>
       </c>
       <c r="F55" s="6" t="str">
@@ -4631,10 +4634,10 @@
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>98</v>
@@ -4649,34 +4652,34 @@
         <v>0</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N55" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B56" s="3">
-        <v>55</v>
-      </c>
-      <c r="C56" s="3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D56" s="8">
         <v>2</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>163</v>
+      <c r="E56" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="F56" s="6" t="str">
         <f>IF((D56=""),"",VLOOKUP(D56,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>98</v>
@@ -4691,31 +4694,31 @@
         <v>0</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N56" s="3">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C57" s="3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D57" s="8">
         <v>2</v>
       </c>
-      <c r="E57" s="21" t="s">
-        <v>164</v>
+      <c r="E57" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F57" s="6" t="str">
         <f>IF((D57=""),"",VLOOKUP(D57,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>35</v>
@@ -4733,34 +4736,34 @@
         <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N57" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B58" s="3">
+        <v>59</v>
+      </c>
+      <c r="C58" s="3">
         <v>57</v>
       </c>
       <c r="D58" s="8">
         <v>2</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>124</v>
+      <c r="E58" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="F58" s="6" t="str">
         <f>IF((D58=""),"",VLOOKUP(D58,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>98</v>
@@ -4775,34 +4778,31 @@
         <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N58" s="3">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
-        <v>58</v>
-      </c>
-      <c r="C59" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D59" s="8">
         <v>2</v>
       </c>
-      <c r="E59" s="20" t="s">
-        <v>165</v>
+      <c r="E59" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F59" s="6" t="str">
         <f>IF((D59=""),"",VLOOKUP(D59,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>98</v>
@@ -4817,73 +4817,76 @@
         <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N59" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B60" s="3">
-        <v>59</v>
-      </c>
-      <c r="C60" s="3">
-        <v>57</v>
-      </c>
-      <c r="D60" s="8">
+        <v>61</v>
+      </c>
+      <c r="D60" s="28">
         <v>2</v>
       </c>
-      <c r="E60" s="21" t="s">
-        <v>166</v>
+      <c r="E60" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="F60" s="6" t="str">
         <f>IF((D60=""),"",VLOOKUP(D60,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J60" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
         <v>90</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J60" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N60" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C61" s="3">
+        <v>61</v>
       </c>
       <c r="D61" s="8">
         <v>2</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>19</v>
+      <c r="E61" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="F61" s="6" t="str">
         <f>IF((D61=""),"",VLOOKUP(D61,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>98</v>
@@ -4898,79 +4901,76 @@
         <v>0</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N61" s="3">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B62" s="3">
+        <v>63</v>
+      </c>
+      <c r="C62" s="3">
         <v>61</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D62" s="8">
         <v>2</v>
       </c>
-      <c r="E62" s="23" t="s">
-        <v>140</v>
+      <c r="E62" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="F62" s="6" t="str">
         <f>IF((D62=""),"",VLOOKUP(D62,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Early Engagement</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J62" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K62" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N62" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
-        <v>62</v>
-      </c>
-      <c r="C63" s="3">
-        <v>61</v>
-      </c>
-      <c r="D63" s="8">
-        <v>2</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>141</v>
+        <v>64</v>
+      </c>
+      <c r="D63" s="27">
+        <v>3</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="F63" s="6" t="str">
         <f>IF((D63=""),"",VLOOKUP(D63,Phases!$A$2:$B$7,2,FALSE))</f>
-        <v>Exemption Early Engagement</v>
+        <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J63" s="7" t="b">
         <v>0</v>
@@ -4982,34 +4982,31 @@
         <v>0</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N63" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
-        <v>63</v>
-      </c>
-      <c r="C64" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D64" s="8">
-        <v>2</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>142</v>
+        <v>3</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="F64" s="6" t="str">
         <f>IF((D64=""),"",VLOOKUP(D64,Phases!$A$2:$B$7,2,FALSE))</f>
-        <v>Exemption Early Engagement</v>
+        <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>98</v>
@@ -5018,26 +5015,26 @@
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="L64" s="3">
         <v>0</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N64" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
-        <v>64</v>
-      </c>
-      <c r="D65" s="27">
+        <v>66</v>
+      </c>
+      <c r="D65" s="8">
         <v>3</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="16" t="s">
         <v>167</v>
       </c>
       <c r="F65" s="6" t="str">
@@ -5045,38 +5042,41 @@
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J65" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="L65" s="3">
         <v>0</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N65" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C66" s="3">
+        <v>66</v>
       </c>
       <c r="D66" s="8">
         <v>3</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>168</v>
       </c>
       <c r="F66" s="6" t="str">
@@ -5084,10 +5084,10 @@
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>98</v>
@@ -5096,26 +5096,29 @@
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N66" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B67" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D67" s="8">
         <v>3</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="19" t="s">
         <v>169</v>
       </c>
       <c r="F67" s="6" t="str">
@@ -5123,10 +5126,10 @@
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>98</v>
@@ -5135,40 +5138,37 @@
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L67" s="3">
         <v>0</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N67" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
-        <v>67</v>
-      </c>
-      <c r="C68" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D68" s="8">
         <v>3</v>
       </c>
-      <c r="E68" s="18" t="s">
-        <v>170</v>
+      <c r="E68" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="F68" s="6" t="str">
         <f>IF((D68=""),"",VLOOKUP(D68,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>98</v>
@@ -5183,34 +5183,34 @@
         <v>0</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N68" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B69" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D69" s="8">
         <v>3</v>
       </c>
-      <c r="E69" s="19" t="s">
-        <v>171</v>
+      <c r="E69" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="F69" s="6" t="str">
         <f>IF((D69=""),"",VLOOKUP(D69,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>98</v>
@@ -5219,37 +5219,40 @@
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="L69" s="3">
         <v>0</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N69" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="C70" s="3">
+        <v>70</v>
       </c>
       <c r="D70" s="8">
         <v>3</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>123</v>
+      <c r="E70" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="F70" s="6" t="str">
         <f>IF((D70=""),"",VLOOKUP(D70,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>98</v>
@@ -5264,76 +5267,76 @@
         <v>0</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N70" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B71" s="3">
+        <v>72</v>
+      </c>
+      <c r="C71" s="3">
         <v>70</v>
       </c>
       <c r="D71" s="8">
         <v>3</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>145</v>
+      <c r="E71" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="F71" s="6" t="str">
         <f>IF((D71=""),"",VLOOKUP(D71,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="N71" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" s="3">
         <v>73</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>0</v>
-      </c>
-      <c r="L71" s="3">
-        <v>0</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="N71" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B72" s="3">
-        <v>71</v>
-      </c>
-      <c r="C72" s="3">
-        <v>70</v>
       </c>
       <c r="D72" s="8">
         <v>3</v>
       </c>
-      <c r="E72" s="20" t="s">
-        <v>146</v>
+      <c r="E72" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="F72" s="6" t="str">
         <f>IF((D72=""),"",VLOOKUP(D72,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>98</v>
@@ -5348,31 +5351,31 @@
         <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N72" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C73" s="3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D73" s="8">
         <v>3</v>
       </c>
-      <c r="E73" s="18" t="s">
-        <v>147</v>
+      <c r="E73" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F73" s="6" t="str">
         <f>IF((D73=""),"",VLOOKUP(D73,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>35</v>
@@ -5390,23 +5393,23 @@
         <v>0</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N73" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B74" s="3">
+        <v>75</v>
+      </c>
+      <c r="C74" s="3">
         <v>73</v>
       </c>
       <c r="D74" s="8">
         <v>3</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="21" t="s">
         <v>162</v>
       </c>
       <c r="F74" s="6" t="str">
@@ -5414,10 +5417,10 @@
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>98</v>
@@ -5432,34 +5435,34 @@
         <v>0</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N74" s="3">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B75" s="3">
-        <v>74</v>
-      </c>
-      <c r="C75" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D75" s="8">
         <v>3</v>
       </c>
-      <c r="E75" s="20" t="s">
-        <v>163</v>
+      <c r="E75" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="F75" s="6" t="str">
         <f>IF((D75=""),"",VLOOKUP(D75,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>98</v>
@@ -5474,31 +5477,31 @@
         <v>0</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N75" s="3">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B76" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C76" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D76" s="8">
         <v>3</v>
       </c>
-      <c r="E76" s="21" t="s">
-        <v>164</v>
+      <c r="E76" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F76" s="6" t="str">
         <f>IF((D76=""),"",VLOOKUP(D76,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>35</v>
@@ -5516,34 +5519,34 @@
         <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N76" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B77" s="3">
+        <v>78</v>
+      </c>
+      <c r="C77" s="3">
         <v>76</v>
       </c>
       <c r="D77" s="8">
         <v>3</v>
       </c>
-      <c r="E77" s="19" t="s">
-        <v>124</v>
+      <c r="E77" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="F77" s="6" t="str">
         <f>IF((D77=""),"",VLOOKUP(D77,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>98</v>
@@ -5558,34 +5561,31 @@
         <v>0</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N77" s="3">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B78" s="3">
-        <v>77</v>
-      </c>
-      <c r="C78" s="3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D78" s="8">
         <v>3</v>
       </c>
-      <c r="E78" s="20" t="s">
-        <v>165</v>
+      <c r="E78" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F78" s="6" t="str">
         <f>IF((D78=""),"",VLOOKUP(D78,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>98</v>
@@ -5600,76 +5600,73 @@
         <v>0</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N78" s="3">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B79" s="3">
-        <v>78</v>
-      </c>
-      <c r="C79" s="3">
-        <v>76</v>
-      </c>
-      <c r="D79" s="8">
+        <v>80</v>
+      </c>
+      <c r="D79" s="28">
         <v>3</v>
       </c>
-      <c r="E79" s="21" t="s">
-        <v>173</v>
+      <c r="E79" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="F79" s="6" t="str">
         <f>IF((D79=""),"",VLOOKUP(D79,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption DPD Development (Proponent Time)</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J79" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="L79" s="3">
         <v>0</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N79" s="3">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B80" s="3">
-        <v>79</v>
-      </c>
-      <c r="D80" s="8">
-        <v>3</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
+      </c>
+      <c r="D80" s="27">
+        <v>4</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="F80" s="6" t="str">
         <f>IF((D80=""),"",VLOOKUP(D80,Phases!$A$2:$B$7,2,FALSE))</f>
-        <v>Exemption DPD Development (Proponent Time)</v>
+        <v>Exemption Readiness Decision</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J80" s="7" t="b">
         <v>0</v>
@@ -5681,59 +5678,65 @@
         <v>0</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N80" s="3">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B81" s="3">
-        <v>80</v>
-      </c>
-      <c r="D81" s="28">
-        <v>3</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>172</v>
+        <v>82</v>
+      </c>
+      <c r="C81" s="3">
+        <v>81</v>
+      </c>
+      <c r="D81" s="8">
+        <v>4</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="F81" s="6" t="str">
         <f>IF((D81=""),"",VLOOKUP(D81,Phases!$A$2:$B$7,2,FALSE))</f>
-        <v>Exemption DPD Development (Proponent Time)</v>
+        <v>Exemption Readiness Decision</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J81" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N81" s="3">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B82" s="3">
+        <v>83</v>
+      </c>
+      <c r="C82" s="3">
         <v>81</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D82" s="8">
         <v>4</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="21" t="s">
         <v>174</v>
       </c>
       <c r="F82" s="6" t="str">
@@ -5741,13 +5744,13 @@
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J82" s="7" t="b">
         <v>0</v>
@@ -5759,23 +5762,20 @@
         <v>0</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N82" s="3">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B83" s="3">
-        <v>82</v>
-      </c>
-      <c r="C83" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D83" s="8">
         <v>4</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="2" t="s">
         <v>175</v>
       </c>
       <c r="F83" s="6" t="str">
@@ -5783,10 +5783,10 @@
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>98</v>
@@ -5795,29 +5795,26 @@
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N83" s="3">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B84" s="3">
-        <v>83</v>
-      </c>
-      <c r="C84" s="3">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D84" s="8">
         <v>4</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F84" s="6" t="str">
@@ -5825,10 +5822,10 @@
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>98</v>
@@ -5837,26 +5834,29 @@
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L84" s="3">
         <v>0</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N84" s="3">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B85" s="3">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="C85" s="3">
+        <v>85</v>
       </c>
       <c r="D85" s="8">
         <v>4</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="21" t="s">
         <v>177</v>
       </c>
       <c r="F85" s="6" t="str">
@@ -5864,7 +5864,7 @@
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>34</v>
@@ -5876,26 +5876,29 @@
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L85" s="3">
         <v>0</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N85" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B86" s="3">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D86" s="8">
         <v>4</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="25" t="s">
         <v>178</v>
       </c>
       <c r="F86" s="6" t="str">
@@ -5903,10 +5906,10 @@
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>98</v>
@@ -5915,29 +5918,29 @@
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L86" s="3">
         <v>0</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N86" s="3">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B87" s="3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C87" s="3">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D87" s="8">
         <v>4</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="E87" s="20" t="s">
         <v>179</v>
       </c>
       <c r="F87" s="6" t="str">
@@ -5945,10 +5948,10 @@
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>98</v>
@@ -5963,23 +5966,23 @@
         <v>0</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N87" s="3">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B88" s="3">
+        <v>89</v>
+      </c>
+      <c r="C88" s="3">
         <v>87</v>
       </c>
       <c r="D88" s="8">
         <v>4</v>
       </c>
-      <c r="E88" s="25" t="s">
+      <c r="E88" s="21" t="s">
         <v>180</v>
       </c>
       <c r="F88" s="6" t="str">
@@ -5987,10 +5990,10 @@
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>98</v>
@@ -5999,29 +6002,26 @@
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L88" s="3">
         <v>0</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N88" s="3">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B89" s="3">
-        <v>88</v>
-      </c>
-      <c r="C89" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D89" s="8">
         <v>4</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F89" s="6" t="str">
@@ -6029,10 +6029,10 @@
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>98</v>
@@ -6041,40 +6041,37 @@
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N89" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B90" s="3">
-        <v>89</v>
-      </c>
-      <c r="C90" s="3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D90" s="8">
         <v>4</v>
       </c>
-      <c r="E90" s="21" t="s">
-        <v>182</v>
+      <c r="E90" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="F90" s="6" t="str">
         <f>IF((D90=""),"",VLOOKUP(D90,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>98</v>
@@ -6089,28 +6086,31 @@
         <v>0</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N90" s="3">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B91" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D91" s="8">
         <v>4</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="F91" s="6" t="str">
         <f>IF((D91=""),"",VLOOKUP(D91,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>34</v>
@@ -6122,37 +6122,40 @@
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N91" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B92" s="3">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C92" s="3">
+        <v>92</v>
       </c>
       <c r="D92" s="8">
         <v>4</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>123</v>
+      <c r="E92" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="F92" s="6" t="str">
         <f>IF((D92=""),"",VLOOKUP(D92,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>98</v>
@@ -6167,34 +6170,34 @@
         <v>0</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N92" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B93" s="3">
+        <v>94</v>
+      </c>
+      <c r="C93" s="3">
         <v>92</v>
       </c>
       <c r="D93" s="8">
         <v>4</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>145</v>
+      <c r="E93" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="F93" s="6" t="str">
         <f>IF((D93=""),"",VLOOKUP(D93,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>98</v>
@@ -6209,34 +6212,34 @@
         <v>0</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N93" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B94" s="3">
-        <v>93</v>
-      </c>
-      <c r="C94" s="3">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D94" s="8">
         <v>4</v>
       </c>
-      <c r="E94" s="20" t="s">
-        <v>146</v>
+      <c r="E94" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="F94" s="6" t="str">
         <f>IF((D94=""),"",VLOOKUP(D94,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>98</v>
@@ -6251,31 +6254,31 @@
         <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N94" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B95" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C95" s="3">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D95" s="8">
         <v>4</v>
       </c>
-      <c r="E95" s="18" t="s">
-        <v>147</v>
+      <c r="E95" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F95" s="6" t="str">
         <f>IF((D95=""),"",VLOOKUP(D95,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>35</v>
@@ -6293,23 +6296,23 @@
         <v>0</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N95" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B96" s="3">
+        <v>97</v>
+      </c>
+      <c r="C96" s="3">
         <v>95</v>
       </c>
       <c r="D96" s="8">
         <v>4</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="21" t="s">
         <v>162</v>
       </c>
       <c r="F96" s="6" t="str">
@@ -6317,10 +6320,10 @@
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>98</v>
@@ -6335,34 +6338,34 @@
         <v>0</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N96" s="3">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B97" s="3">
-        <v>96</v>
-      </c>
-      <c r="C97" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D97" s="8">
         <v>4</v>
       </c>
-      <c r="E97" s="20" t="s">
-        <v>163</v>
+      <c r="E97" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="F97" s="6" t="str">
         <f>IF((D97=""),"",VLOOKUP(D97,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>98</v>
@@ -6377,31 +6380,31 @@
         <v>0</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N97" s="3">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B98" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C98" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D98" s="8">
         <v>4</v>
       </c>
-      <c r="E98" s="21" t="s">
-        <v>164</v>
+      <c r="E98" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F98" s="6" t="str">
         <f>IF((D98=""),"",VLOOKUP(D98,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>35</v>
@@ -6419,34 +6422,34 @@
         <v>0</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N98" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B99" s="3">
+        <v>100</v>
+      </c>
+      <c r="C99" s="3">
         <v>98</v>
       </c>
       <c r="D99" s="8">
         <v>4</v>
       </c>
-      <c r="E99" s="19" t="s">
-        <v>124</v>
+      <c r="E99" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="F99" s="6" t="str">
         <f>IF((D99=""),"",VLOOKUP(D99,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>98</v>
@@ -6461,34 +6464,31 @@
         <v>0</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N99" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B100" s="3">
-        <v>99</v>
-      </c>
-      <c r="C100" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D100" s="8">
         <v>4</v>
       </c>
-      <c r="E100" s="20" t="s">
-        <v>165</v>
+      <c r="E100" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F100" s="6" t="str">
         <f>IF((D100=""),"",VLOOKUP(D100,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>98</v>
@@ -6503,76 +6503,73 @@
         <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N100" s="3">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B101" s="3">
-        <v>100</v>
-      </c>
-      <c r="C101" s="3">
-        <v>98</v>
-      </c>
-      <c r="D101" s="8">
+        <v>102</v>
+      </c>
+      <c r="D101" s="28">
         <v>4</v>
       </c>
-      <c r="E101" s="21" t="s">
-        <v>173</v>
+      <c r="E101" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="F101" s="6" t="str">
         <f>IF((D101=""),"",VLOOKUP(D101,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Readiness Decision</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J101" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B102" s="3">
-        <v>101</v>
-      </c>
-      <c r="D102" s="8">
-        <v>4</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>19</v>
+        <v>103</v>
+      </c>
+      <c r="D102" s="27">
+        <v>5</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F102" s="6" t="str">
         <f>IF((D102=""),"",VLOOKUP(D102,Phases!$A$2:$B$7,2,FALSE))</f>
-        <v>Exemption Readiness Decision</v>
+        <v>Exemption Decision</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J102" s="7" t="b">
         <v>0</v>
@@ -6584,73 +6581,76 @@
         <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N102" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B103" s="3">
-        <v>102</v>
-      </c>
-      <c r="D103" s="28">
-        <v>4</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>240</v>
+        <v>104</v>
+      </c>
+      <c r="D103" s="8">
+        <v>5</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="F103" s="6" t="str">
         <f>IF((D103=""),"",VLOOKUP(D103,Phases!$A$2:$B$7,2,FALSE))</f>
-        <v>Exemption Readiness Decision</v>
+        <v>Exemption Decision</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J103" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K103" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L103" s="3">
         <v>0</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N103" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B104" s="3">
-        <v>103</v>
-      </c>
-      <c r="D104" s="27">
+        <v>105</v>
+      </c>
+      <c r="D104" s="8">
         <v>5</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>184</v>
+      <c r="E104" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="F104" s="6" t="str">
         <f>IF((D104=""),"",VLOOKUP(D104,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Decision</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J104" s="7" t="b">
         <v>0</v>
@@ -6662,31 +6662,34 @@
         <v>0</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N104" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B105" s="3">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="C105" s="3">
+        <v>105</v>
       </c>
       <c r="D105" s="8">
         <v>5</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>123</v>
+      <c r="E105" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F105" s="6" t="str">
         <f>IF((D105=""),"",VLOOKUP(D105,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Decision</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>98</v>
@@ -6701,23 +6704,23 @@
         <v>0</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N105" s="3">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B106" s="3">
+        <v>107</v>
+      </c>
+      <c r="C106" s="3">
         <v>105</v>
       </c>
       <c r="D106" s="8">
         <v>5</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="21" t="s">
         <v>162</v>
       </c>
       <c r="F106" s="6" t="str">
@@ -6725,10 +6728,10 @@
         <v>Exemption Decision</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>98</v>
@@ -6743,34 +6746,34 @@
         <v>0</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N106" s="3">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B107" s="3">
-        <v>106</v>
-      </c>
-      <c r="C107" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D107" s="8">
         <v>5</v>
       </c>
-      <c r="E107" s="20" t="s">
-        <v>163</v>
+      <c r="E107" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="F107" s="6" t="str">
         <f>IF((D107=""),"",VLOOKUP(D107,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Decision</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>98</v>
@@ -6785,31 +6788,31 @@
         <v>0</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N107" s="3">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B108" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C108" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D108" s="8">
         <v>5</v>
       </c>
-      <c r="E108" s="21" t="s">
-        <v>164</v>
+      <c r="E108" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F108" s="6" t="str">
         <f>IF((D108=""),"",VLOOKUP(D108,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Decision</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>35</v>
@@ -6827,34 +6830,34 @@
         <v>0</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N108" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B109" s="3">
+        <v>110</v>
+      </c>
+      <c r="C109" s="3">
         <v>108</v>
       </c>
       <c r="D109" s="8">
         <v>5</v>
       </c>
-      <c r="E109" s="19" t="s">
-        <v>124</v>
+      <c r="E109" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="F109" s="6" t="str">
         <f>IF((D109=""),"",VLOOKUP(D109,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Decision</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>98</v>
@@ -6869,34 +6872,31 @@
         <v>0</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N109" s="3">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B110" s="3">
-        <v>109</v>
-      </c>
-      <c r="C110" s="3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D110" s="8">
         <v>5</v>
       </c>
-      <c r="E110" s="20" t="s">
-        <v>165</v>
+      <c r="E110" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F110" s="6" t="str">
         <f>IF((D110=""),"",VLOOKUP(D110,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Decision</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>98</v>
@@ -6911,73 +6911,76 @@
         <v>0</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N110" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B111" s="3">
-        <v>110</v>
-      </c>
-      <c r="C111" s="3">
-        <v>108</v>
-      </c>
-      <c r="D111" s="8">
+        <v>112</v>
+      </c>
+      <c r="D111" s="28">
         <v>5</v>
       </c>
-      <c r="E111" s="21" t="s">
-        <v>173</v>
+      <c r="E111" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="F111" s="6" t="str">
         <f>IF((D111=""),"",VLOOKUP(D111,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Decision</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J111" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K111" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L111" s="3">
         <v>0</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N111" s="3">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B112" s="3">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="C112" s="3">
+        <v>112</v>
       </c>
       <c r="D112" s="8">
         <v>5</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>19</v>
+      <c r="E112" s="24" t="s">
+        <v>184</v>
       </c>
       <c r="F112" s="6" t="str">
         <f>IF((D112=""),"",VLOOKUP(D112,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Exemption Decision</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>98</v>
@@ -6992,76 +6995,70 @@
         <v>0</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N112" s="3">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B113" s="3">
-        <v>112</v>
-      </c>
-      <c r="D113" s="28">
-        <v>5</v>
-      </c>
-      <c r="E113" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="27">
+        <v>6</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>185</v>
       </c>
       <c r="F113" s="6" t="str">
         <f>IF((D113=""),"",VLOOKUP(D113,Phases!$A$2:$B$7,2,FALSE))</f>
-        <v>Exemption Decision</v>
+        <v>Further Readiness Decision</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J113" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K113" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L113" s="3">
         <v>0</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N113" s="3">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B114" s="3">
-        <v>113</v>
-      </c>
-      <c r="C114" s="3">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D114" s="8">
-        <v>5</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>186</v>
+        <v>6</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="F114" s="6" t="str">
         <f>IF((D114=""),"",VLOOKUP(D114,Phases!$A$2:$B$7,2,FALSE))</f>
-        <v>Exemption Decision</v>
+        <v>Further Readiness Decision</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>98</v>
@@ -7076,34 +7073,37 @@
         <v>0</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N114" s="3">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B115" s="3">
-        <v>114</v>
-      </c>
-      <c r="D115" s="27">
+        <v>116</v>
+      </c>
+      <c r="D115" s="8">
         <v>6</v>
       </c>
-      <c r="E115" s="7" t="s">
-        <v>187</v>
+      <c r="E115" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="F115" s="6" t="str">
         <f>IF((D115=""),"",VLOOKUP(D115,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Further Readiness Decision</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J115" s="7" t="b">
         <v>0</v>
@@ -7115,31 +7115,34 @@
         <v>0</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N115" s="3">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B116" s="3">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="C116" s="3">
+        <v>116</v>
       </c>
       <c r="D116" s="8">
         <v>6</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>123</v>
+      <c r="E116" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F116" s="6" t="str">
         <f>IF((D116=""),"",VLOOKUP(D116,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Further Readiness Decision</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>98</v>
@@ -7154,34 +7157,34 @@
         <v>0</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N116" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B117" s="3">
+        <v>118</v>
+      </c>
+      <c r="C117" s="3">
         <v>116</v>
       </c>
       <c r="D117" s="8">
         <v>6</v>
       </c>
-      <c r="E117" s="19" t="s">
-        <v>191</v>
+      <c r="E117" s="21" t="s">
+        <v>190</v>
       </c>
       <c r="F117" s="6" t="str">
         <f>IF((D117=""),"",VLOOKUP(D117,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Further Readiness Decision</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>98</v>
@@ -7196,34 +7199,34 @@
         <v>0</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N117" s="3">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B118" s="3">
-        <v>117</v>
-      </c>
-      <c r="C118" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D118" s="8">
         <v>6</v>
       </c>
-      <c r="E118" s="20" t="s">
-        <v>163</v>
+      <c r="E118" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="F118" s="6" t="str">
         <f>IF((D118=""),"",VLOOKUP(D118,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Further Readiness Decision</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>98</v>
@@ -7238,31 +7241,31 @@
         <v>0</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N118" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B119" s="3">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C119" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D119" s="8">
         <v>6</v>
       </c>
-      <c r="E119" s="21" t="s">
-        <v>192</v>
+      <c r="E119" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F119" s="6" t="str">
         <f>IF((D119=""),"",VLOOKUP(D119,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Further Readiness Decision</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>35</v>
@@ -7280,34 +7283,34 @@
         <v>0</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N119" s="3">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B120" s="3">
+        <v>121</v>
+      </c>
+      <c r="C120" s="3">
         <v>119</v>
       </c>
       <c r="D120" s="8">
         <v>6</v>
       </c>
-      <c r="E120" s="19" t="s">
-        <v>193</v>
+      <c r="E120" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="F120" s="6" t="str">
         <f>IF((D120=""),"",VLOOKUP(D120,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Further Readiness Decision</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>98</v>
@@ -7322,34 +7325,31 @@
         <v>0</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N120" s="3">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B121" s="3">
-        <v>120</v>
-      </c>
-      <c r="C121" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D121" s="8">
         <v>6</v>
       </c>
-      <c r="E121" s="20" t="s">
-        <v>165</v>
+      <c r="E121" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F121" s="6" t="str">
         <f>IF((D121=""),"",VLOOKUP(D121,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Further Readiness Decision</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>98</v>
@@ -7364,73 +7364,76 @@
         <v>0</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N121" s="3">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B122" s="3">
-        <v>121</v>
-      </c>
-      <c r="C122" s="3">
-        <v>119</v>
-      </c>
-      <c r="D122" s="8">
+        <v>123</v>
+      </c>
+      <c r="D122" s="28">
         <v>6</v>
       </c>
-      <c r="E122" s="21" t="s">
-        <v>166</v>
+      <c r="E122" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="F122" s="6" t="str">
         <f>IF((D122=""),"",VLOOKUP(D122,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Further Readiness Decision</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J122" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K122" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L122" s="3">
         <v>0</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N122" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B123" s="3">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="C123" s="3">
+        <v>123</v>
       </c>
       <c r="D123" s="8">
         <v>6</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>19</v>
+      <c r="E123" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="F123" s="6" t="str">
         <f>IF((D123=""),"",VLOOKUP(D123,Phases!$A$2:$B$7,2,FALSE))</f>
         <v>Further Readiness Decision</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>98</v>
@@ -7445,23 +7448,23 @@
         <v>0</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N123" s="3">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="B124" s="3">
+        <v>125</v>
+      </c>
+      <c r="C124" s="3">
         <v>123</v>
       </c>
-      <c r="D124" s="28">
+      <c r="D124" s="8">
         <v>6</v>
       </c>
-      <c r="E124" s="26" t="s">
+      <c r="E124" s="21" t="s">
         <v>188</v>
       </c>
       <c r="F124" s="6" t="str">
@@ -7469,116 +7472,33 @@
         <v>Further Readiness Decision</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J124" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K124" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L124" s="3">
         <v>0</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N124" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B125" s="3">
-        <v>124</v>
-      </c>
-      <c r="C125" s="3">
-        <v>123</v>
-      </c>
-      <c r="D125" s="8">
-        <v>6</v>
-      </c>
-      <c r="E125" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F125" s="6" t="str">
-        <f>IF((D125=""),"",VLOOKUP(D125,Phases!$A$2:$B$7,2,FALSE))</f>
-        <v>Further Readiness Decision</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J125" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K125" s="2">
-        <v>0</v>
-      </c>
-      <c r="L125" s="3">
-        <v>0</v>
-      </c>
-      <c r="M125" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="N125" s="3">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B126" s="3">
         <v>125</v>
       </c>
-      <c r="C126" s="3">
-        <v>123</v>
-      </c>
-      <c r="D126" s="8">
-        <v>6</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F126" s="6" t="str">
-        <f>IF((D126=""),"",VLOOKUP(D126,Phases!$A$2:$B$7,2,FALSE))</f>
-        <v>Further Readiness Decision</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J126" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K126" s="2">
-        <v>0</v>
-      </c>
-      <c r="L126" s="3">
-        <v>0</v>
-      </c>
-      <c r="M126" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="N126" s="3">
-        <v>125</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I126">
+  <autoFilter ref="A1:N124" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}"/>
+  <conditionalFormatting sqref="I1:I124">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="END">
       <formula>NOT(ISERROR(SEARCH("END",I1)))</formula>
     </cfRule>
@@ -7594,31 +7514,31 @@
           <x14:formula1>
             <xm:f>Lookups!$K$3:$K$9</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H126</xm:sqref>
+          <xm:sqref>H2:H124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65DF4310-1509-4DE8-8535-DCDB722824BD}">
           <x14:formula1>
             <xm:f>Lookups!$Q$3:$Q$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I126</xm:sqref>
+          <xm:sqref>I2:I124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E633788-78DC-4B8E-B8EE-32416443C2DA}">
           <x14:formula1>
             <xm:f>Lookups!$S$3:$S$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J126</xm:sqref>
+          <xm:sqref>J2:J124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{486DEDE7-BAAD-4F07-BF86-68CC65BA16B7}">
           <x14:formula1>
             <xm:f>Lookups!$I$3:$I$39</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G126</xm:sqref>
+          <xm:sqref>G2:G124</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22B15D01-845E-49E3-A9EB-3C108A48B871}">
           <x14:formula1>
             <xm:f>Phases!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D126</xm:sqref>
+          <xm:sqref>D2:D124</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7671,11 +7591,11 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f>IF((B2=""),"",VLOOKUP(B2,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B2=""),"",VLOOKUP(B2,Events!$B$2:$E$124,4,FALSE))</f>
         <v>"Draft" Initial Project Description &amp; Engagement Plan Initial Review</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -7689,11 +7609,11 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f>IF((B3=""),"",VLOOKUP(B3,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B3=""),"",VLOOKUP(B3,Events!$B$2:$E$124,4,FALSE))</f>
         <v>"Draft" Initial Project Description &amp; Engagement Plan Initial Review</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -7707,11 +7627,11 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="str">
-        <f>IF((B4=""),"",VLOOKUP(B4,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B4=""),"",VLOOKUP(B4,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Submission Withdrawn</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -7725,11 +7645,11 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f>IF((B5=""),"",VLOOKUP(B5,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B5=""),"",VLOOKUP(B5,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Approval of IPD/EP Submission</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -7743,11 +7663,11 @@
         <v>32</v>
       </c>
       <c r="C6" s="6" t="str">
-        <f>IF((B6=""),"",VLOOKUP(B6,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B6=""),"",VLOOKUP(B6,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -7761,11 +7681,11 @@
         <v>54</v>
       </c>
       <c r="C7" s="6" t="str">
-        <f>IF((B7=""),"",VLOOKUP(B7,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B7=""),"",VLOOKUP(B7,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Exemption Request Terminated s.39(d)</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -7779,11 +7699,11 @@
         <v>57</v>
       </c>
       <c r="C8" s="6" t="str">
-        <f>IF((B8=""),"",VLOOKUP(B8,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B8=""),"",VLOOKUP(B8,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Submission Withdrawn</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
@@ -7797,11 +7717,11 @@
         <v>61</v>
       </c>
       <c r="C9" s="6" t="str">
-        <f>IF((B9=""),"",VLOOKUP(B9,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B9=""),"",VLOOKUP(B9,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Summary of Engagement</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
@@ -7815,11 +7735,11 @@
         <v>68</v>
       </c>
       <c r="C10" s="6" t="str">
-        <f>IF((B10=""),"",VLOOKUP(B10,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B10=""),"",VLOOKUP(B10,Events!$B$2:$E$124,4,FALSE))</f>
         <v>"Draft" Detailed Project Description Initial Review</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="3">
         <v>9</v>
@@ -7833,11 +7753,11 @@
         <v>68</v>
       </c>
       <c r="C11" s="6" t="str">
-        <f>IF((B11=""),"",VLOOKUP(B11,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B11=""),"",VLOOKUP(B11,Events!$B$2:$E$124,4,FALSE))</f>
         <v>"Draft" Detailed Project Description Initial Review</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -7851,11 +7771,11 @@
         <v>70</v>
       </c>
       <c r="C12" s="6" t="str">
-        <f>IF((B12=""),"",VLOOKUP(B12,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B12=""),"",VLOOKUP(B12,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E12" s="3">
         <v>11</v>
@@ -7869,11 +7789,11 @@
         <v>73</v>
       </c>
       <c r="C13" s="6" t="str">
-        <f>IF((B13=""),"",VLOOKUP(B13,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B13=""),"",VLOOKUP(B13,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Exemption Request Terminated s.39(d)</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E13" s="3">
         <v>12</v>
@@ -7887,11 +7807,11 @@
         <v>76</v>
       </c>
       <c r="C14" s="6" t="str">
-        <f>IF((B14=""),"",VLOOKUP(B14,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B14=""),"",VLOOKUP(B14,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Submission Withdrawn</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E14" s="3">
         <v>13</v>
@@ -7905,11 +7825,11 @@
         <v>87</v>
       </c>
       <c r="C15" s="6" t="str">
-        <f>IF((B15=""),"",VLOOKUP(B15,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B15=""),"",VLOOKUP(B15,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Decision: Readiness Decision</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E15" s="3">
         <v>14</v>
@@ -7923,11 +7843,11 @@
         <v>87</v>
       </c>
       <c r="C16" s="6" t="str">
-        <f>IF((B16=""),"",VLOOKUP(B16,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B16=""),"",VLOOKUP(B16,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Decision: Readiness Decision</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E16" s="3">
         <v>15</v>
@@ -7941,11 +7861,11 @@
         <v>92</v>
       </c>
       <c r="C17" s="6" t="str">
-        <f>IF((B17=""),"",VLOOKUP(B17,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B17=""),"",VLOOKUP(B17,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E17" s="3">
         <v>16</v>
@@ -7959,11 +7879,11 @@
         <v>95</v>
       </c>
       <c r="C18" s="6" t="str">
-        <f>IF((B18=""),"",VLOOKUP(B18,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B18=""),"",VLOOKUP(B18,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Exemption Request Terminated s.39(d)</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="3">
         <v>17</v>
@@ -7977,11 +7897,11 @@
         <v>98</v>
       </c>
       <c r="C19" s="6" t="str">
-        <f>IF((B19=""),"",VLOOKUP(B19,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B19=""),"",VLOOKUP(B19,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Submission Withdrawn</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
@@ -7995,11 +7915,11 @@
         <v>105</v>
       </c>
       <c r="C20" s="6" t="str">
-        <f>IF((B20=""),"",VLOOKUP(B20,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B20=""),"",VLOOKUP(B20,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Exemption Request Terminated s.39(d)</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="3">
         <v>19</v>
@@ -8013,11 +7933,11 @@
         <v>108</v>
       </c>
       <c r="C21" s="6" t="str">
-        <f>IF((B21=""),"",VLOOKUP(B21,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B21=""),"",VLOOKUP(B21,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Submission Withdrawn</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
@@ -8031,11 +7951,11 @@
         <v>112</v>
       </c>
       <c r="C22" s="6" t="str">
-        <f>IF((B22=""),"",VLOOKUP(B22,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B22=""),"",VLOOKUP(B22,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Minister's Exemption Request Decision</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E22" s="3">
         <v>21</v>
@@ -8049,11 +7969,11 @@
         <v>112</v>
       </c>
       <c r="C23" s="6" t="str">
-        <f>IF((B23=""),"",VLOOKUP(B23,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B23=""),"",VLOOKUP(B23,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Minister's Exemption Request Decision</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E23" s="3">
         <v>22</v>
@@ -8067,11 +7987,11 @@
         <v>116</v>
       </c>
       <c r="C24" s="6" t="str">
-        <f>IF((B24=""),"",VLOOKUP(B24,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B24=""),"",VLOOKUP(B24,Events!$B$2:$E$124,4,FALSE))</f>
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E24" s="3">
         <v>23</v>
@@ -8085,11 +8005,11 @@
         <v>119</v>
       </c>
       <c r="C25" s="6" t="str">
-        <f>IF((B25=""),"",VLOOKUP(B25,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B25=""),"",VLOOKUP(B25,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Project Withdrawn</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E25" s="3">
         <v>24</v>
@@ -8103,11 +8023,11 @@
         <v>123</v>
       </c>
       <c r="C26" s="6" t="str">
-        <f>IF((B26=""),"",VLOOKUP(B26,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B26=""),"",VLOOKUP(B26,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Decision: Further Readiness Decision</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E26" s="3">
         <v>25</v>
@@ -8121,11 +8041,11 @@
         <v>123</v>
       </c>
       <c r="C27" s="6" t="str">
-        <f>IF((B27=""),"",VLOOKUP(B27,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B27=""),"",VLOOKUP(B27,Events!$B$2:$E$124,4,FALSE))</f>
         <v>Decision: Further Readiness Decision</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E27" s="3">
         <v>26</v>
@@ -8137,7 +8057,7 @@
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="6" t="str">
-        <f>IF((B28=""),"",VLOOKUP(B28,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B28=""),"",VLOOKUP(B28,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E28" s="3">
@@ -8150,7 +8070,7 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="6" t="str">
-        <f>IF((B29=""),"",VLOOKUP(B29,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B29=""),"",VLOOKUP(B29,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E29" s="3">
@@ -8163,7 +8083,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="6" t="str">
-        <f>IF((B30=""),"",VLOOKUP(B30,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B30=""),"",VLOOKUP(B30,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E30" s="3">
@@ -8176,7 +8096,7 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="6" t="str">
-        <f>IF((B31=""),"",VLOOKUP(B31,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B31=""),"",VLOOKUP(B31,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E31" s="3">
@@ -8189,7 +8109,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="6" t="str">
-        <f>IF((B32=""),"",VLOOKUP(B32,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B32=""),"",VLOOKUP(B32,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E32" s="3">
@@ -8202,7 +8122,7 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="6" t="str">
-        <f>IF((B33=""),"",VLOOKUP(B33,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B33=""),"",VLOOKUP(B33,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E33" s="3">
@@ -8215,7 +8135,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="6" t="str">
-        <f>IF((B34=""),"",VLOOKUP(B34,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B34=""),"",VLOOKUP(B34,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E34" s="3">
@@ -8228,7 +8148,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="6" t="str">
-        <f>IF((B35=""),"",VLOOKUP(B35,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B35=""),"",VLOOKUP(B35,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E35" s="3">
@@ -8241,7 +8161,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="6" t="str">
-        <f>IF((B36=""),"",VLOOKUP(B36,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B36=""),"",VLOOKUP(B36,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E36" s="3">
@@ -8254,7 +8174,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="6" t="str">
-        <f>IF((B37=""),"",VLOOKUP(B37,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B37=""),"",VLOOKUP(B37,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E37" s="3">
@@ -8267,7 +8187,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="6" t="str">
-        <f>IF((B38=""),"",VLOOKUP(B38,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B38=""),"",VLOOKUP(B38,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E38" s="3">
@@ -8280,7 +8200,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6" t="str">
-        <f>IF((B39=""),"",VLOOKUP(B39,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B39=""),"",VLOOKUP(B39,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E39" s="3">
@@ -8293,7 +8213,7 @@
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="6" t="str">
-        <f>IF((B40=""),"",VLOOKUP(B40,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B40=""),"",VLOOKUP(B40,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E40" s="3">
@@ -8306,7 +8226,7 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="6" t="str">
-        <f>IF((B41=""),"",VLOOKUP(B41,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B41=""),"",VLOOKUP(B41,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E41" s="3">
@@ -8319,7 +8239,7 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="6" t="str">
-        <f>IF((B42=""),"",VLOOKUP(B42,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B42=""),"",VLOOKUP(B42,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E42" s="3">
@@ -8332,7 +8252,7 @@
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="6" t="str">
-        <f>IF((B43=""),"",VLOOKUP(B43,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B43=""),"",VLOOKUP(B43,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E43" s="3">
@@ -8345,7 +8265,7 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="6" t="str">
-        <f>IF((B44=""),"",VLOOKUP(B44,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B44=""),"",VLOOKUP(B44,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E44" s="3">
@@ -8358,7 +8278,7 @@
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="6" t="str">
-        <f>IF((B45=""),"",VLOOKUP(B45,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B45=""),"",VLOOKUP(B45,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E45" s="3">
@@ -8371,7 +8291,7 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="6" t="str">
-        <f>IF((B46=""),"",VLOOKUP(B46,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B46=""),"",VLOOKUP(B46,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E46" s="3">
@@ -8384,7 +8304,7 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="6" t="str">
-        <f>IF((B47=""),"",VLOOKUP(B47,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B47=""),"",VLOOKUP(B47,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E47" s="3">
@@ -8397,7 +8317,7 @@
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="6" t="str">
-        <f>IF((B48=""),"",VLOOKUP(B48,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B48=""),"",VLOOKUP(B48,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E48" s="3">
@@ -8410,7 +8330,7 @@
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="6" t="str">
-        <f>IF((B49=""),"",VLOOKUP(B49,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B49=""),"",VLOOKUP(B49,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E49" s="3">
@@ -8423,7 +8343,7 @@
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="6" t="str">
-        <f>IF((B50=""),"",VLOOKUP(B50,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B50=""),"",VLOOKUP(B50,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E50" s="3">
@@ -8436,7 +8356,7 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="6" t="str">
-        <f>IF((B51=""),"",VLOOKUP(B51,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B51=""),"",VLOOKUP(B51,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E51" s="3">
@@ -8449,7 +8369,7 @@
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="6" t="str">
-        <f>IF((B52=""),"",VLOOKUP(B52,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B52=""),"",VLOOKUP(B52,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E52" s="3">
@@ -8462,7 +8382,7 @@
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="6" t="str">
-        <f>IF((B53=""),"",VLOOKUP(B53,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B53=""),"",VLOOKUP(B53,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E53" s="3">
@@ -8475,7 +8395,7 @@
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="6" t="str">
-        <f>IF((B54=""),"",VLOOKUP(B54,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B54=""),"",VLOOKUP(B54,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E54" s="3">
@@ -8488,7 +8408,7 @@
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="6" t="str">
-        <f>IF((B55=""),"",VLOOKUP(B55,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B55=""),"",VLOOKUP(B55,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E55" s="3">
@@ -8501,7 +8421,7 @@
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="6" t="str">
-        <f>IF((B56=""),"",VLOOKUP(B56,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B56=""),"",VLOOKUP(B56,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E56" s="3">
@@ -8514,7 +8434,7 @@
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="6" t="str">
-        <f>IF((B57=""),"",VLOOKUP(B57,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B57=""),"",VLOOKUP(B57,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E57" s="3">
@@ -8527,7 +8447,7 @@
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="6" t="str">
-        <f>IF((B58=""),"",VLOOKUP(B58,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B58=""),"",VLOOKUP(B58,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E58" s="3">
@@ -8540,7 +8460,7 @@
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="6" t="str">
-        <f>IF((B59=""),"",VLOOKUP(B59,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B59=""),"",VLOOKUP(B59,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E59" s="3">
@@ -8553,7 +8473,7 @@
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="6" t="str">
-        <f>IF((B60=""),"",VLOOKUP(B60,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B60=""),"",VLOOKUP(B60,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E60" s="3">
@@ -8566,7 +8486,7 @@
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="6" t="str">
-        <f>IF((B61=""),"",VLOOKUP(B61,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B61=""),"",VLOOKUP(B61,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E61" s="3">
@@ -8579,7 +8499,7 @@
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="6" t="str">
-        <f>IF((B62=""),"",VLOOKUP(B62,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B62=""),"",VLOOKUP(B62,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E62" s="3">
@@ -8592,7 +8512,7 @@
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="6" t="str">
-        <f>IF((B63=""),"",VLOOKUP(B63,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B63=""),"",VLOOKUP(B63,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E63" s="3">
@@ -8605,7 +8525,7 @@
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="6" t="str">
-        <f>IF((B64=""),"",VLOOKUP(B64,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B64=""),"",VLOOKUP(B64,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E64" s="3">
@@ -8618,7 +8538,7 @@
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="6" t="str">
-        <f>IF((B65=""),"",VLOOKUP(B65,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B65=""),"",VLOOKUP(B65,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E65" s="3">
@@ -8631,7 +8551,7 @@
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="6" t="str">
-        <f>IF((B66=""),"",VLOOKUP(B66,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B66=""),"",VLOOKUP(B66,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E66" s="3">
@@ -8644,7 +8564,7 @@
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="6" t="str">
-        <f>IF((B67=""),"",VLOOKUP(B67,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B67=""),"",VLOOKUP(B67,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E67" s="3">
@@ -8657,7 +8577,7 @@
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="6" t="str">
-        <f>IF((B68=""),"",VLOOKUP(B68,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B68=""),"",VLOOKUP(B68,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E68" s="3">
@@ -8670,7 +8590,7 @@
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="6" t="str">
-        <f>IF((B69=""),"",VLOOKUP(B69,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B69=""),"",VLOOKUP(B69,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E69" s="3">
@@ -8683,7 +8603,7 @@
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="6" t="str">
-        <f>IF((B70=""),"",VLOOKUP(B70,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B70=""),"",VLOOKUP(B70,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E70" s="3">
@@ -8696,7 +8616,7 @@
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="6" t="str">
-        <f>IF((B71=""),"",VLOOKUP(B71,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B71=""),"",VLOOKUP(B71,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E71" s="3">
@@ -8709,7 +8629,7 @@
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="6" t="str">
-        <f>IF((B72=""),"",VLOOKUP(B72,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B72=""),"",VLOOKUP(B72,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E72" s="3">
@@ -8722,7 +8642,7 @@
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="6" t="str">
-        <f>IF((B73=""),"",VLOOKUP(B73,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B73=""),"",VLOOKUP(B73,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E73" s="3">
@@ -8735,7 +8655,7 @@
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="6" t="str">
-        <f>IF((B74=""),"",VLOOKUP(B74,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B74=""),"",VLOOKUP(B74,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E74" s="3">
@@ -8748,7 +8668,7 @@
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="6" t="str">
-        <f>IF((B75=""),"",VLOOKUP(B75,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B75=""),"",VLOOKUP(B75,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E75" s="3">
@@ -8761,7 +8681,7 @@
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="6" t="str">
-        <f>IF((B76=""),"",VLOOKUP(B76,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B76=""),"",VLOOKUP(B76,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E76" s="3">
@@ -8774,7 +8694,7 @@
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="6" t="str">
-        <f>IF((B77=""),"",VLOOKUP(B77,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B77=""),"",VLOOKUP(B77,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E77" s="3">
@@ -8787,7 +8707,7 @@
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="6" t="str">
-        <f>IF((B78=""),"",VLOOKUP(B78,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B78=""),"",VLOOKUP(B78,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E78" s="3">
@@ -8800,7 +8720,7 @@
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="6" t="str">
-        <f>IF((B79=""),"",VLOOKUP(B79,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B79=""),"",VLOOKUP(B79,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E79" s="3">
@@ -8813,7 +8733,7 @@
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="6" t="str">
-        <f>IF((B80=""),"",VLOOKUP(B80,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B80=""),"",VLOOKUP(B80,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E80" s="3">
@@ -8826,7 +8746,7 @@
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="6" t="str">
-        <f>IF((B81=""),"",VLOOKUP(B81,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B81=""),"",VLOOKUP(B81,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E81" s="3">
@@ -8839,7 +8759,7 @@
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="6" t="str">
-        <f>IF((B82=""),"",VLOOKUP(B82,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B82=""),"",VLOOKUP(B82,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E82" s="3">
@@ -8852,7 +8772,7 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="6" t="str">
-        <f>IF((B83=""),"",VLOOKUP(B83,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B83=""),"",VLOOKUP(B83,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E83" s="3">
@@ -8865,7 +8785,7 @@
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="6" t="str">
-        <f>IF((B84=""),"",VLOOKUP(B84,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B84=""),"",VLOOKUP(B84,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E84" s="3">
@@ -8878,7 +8798,7 @@
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="6" t="str">
-        <f>IF((B85=""),"",VLOOKUP(B85,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B85=""),"",VLOOKUP(B85,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E85" s="3">
@@ -8891,7 +8811,7 @@
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="6" t="str">
-        <f>IF((B86=""),"",VLOOKUP(B86,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B86=""),"",VLOOKUP(B86,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E86" s="3">
@@ -8904,7 +8824,7 @@
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="6" t="str">
-        <f>IF((B87=""),"",VLOOKUP(B87,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B87=""),"",VLOOKUP(B87,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E87" s="3">
@@ -8917,7 +8837,7 @@
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="6" t="str">
-        <f>IF((B88=""),"",VLOOKUP(B88,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B88=""),"",VLOOKUP(B88,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E88" s="3">
@@ -8930,7 +8850,7 @@
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="6" t="str">
-        <f>IF((B89=""),"",VLOOKUP(B89,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B89=""),"",VLOOKUP(B89,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E89" s="3">
@@ -8943,7 +8863,7 @@
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="6" t="str">
-        <f>IF((B90=""),"",VLOOKUP(B90,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B90=""),"",VLOOKUP(B90,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E90" s="3">
@@ -8956,7 +8876,7 @@
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="6" t="str">
-        <f>IF((B91=""),"",VLOOKUP(B91,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B91=""),"",VLOOKUP(B91,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E91" s="3">
@@ -8969,7 +8889,7 @@
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="6" t="str">
-        <f>IF((B92=""),"",VLOOKUP(B92,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B92=""),"",VLOOKUP(B92,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E92" s="3">
@@ -8982,7 +8902,7 @@
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="6" t="str">
-        <f>IF((B93=""),"",VLOOKUP(B93,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B93=""),"",VLOOKUP(B93,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E93" s="3">
@@ -8995,7 +8915,7 @@
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="6" t="str">
-        <f>IF((B94=""),"",VLOOKUP(B94,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B94=""),"",VLOOKUP(B94,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E94" s="3">
@@ -9008,7 +8928,7 @@
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="6" t="str">
-        <f>IF((B95=""),"",VLOOKUP(B95,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B95=""),"",VLOOKUP(B95,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E95" s="3">
@@ -9021,7 +8941,7 @@
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="6" t="str">
-        <f>IF((B96=""),"",VLOOKUP(B96,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B96=""),"",VLOOKUP(B96,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E96" s="3">
@@ -9034,7 +8954,7 @@
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="6" t="str">
-        <f>IF((B97=""),"",VLOOKUP(B97,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B97=""),"",VLOOKUP(B97,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E97" s="3">
@@ -9047,7 +8967,7 @@
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="6" t="str">
-        <f>IF((B98=""),"",VLOOKUP(B98,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B98=""),"",VLOOKUP(B98,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E98" s="3">
@@ -9060,7 +8980,7 @@
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="6" t="str">
-        <f>IF((B99=""),"",VLOOKUP(B99,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B99=""),"",VLOOKUP(B99,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E99" s="3">
@@ -9073,7 +8993,7 @@
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="6" t="str">
-        <f>IF((B100=""),"",VLOOKUP(B100,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B100=""),"",VLOOKUP(B100,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E100" s="3">
@@ -9086,7 +9006,7 @@
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="6" t="str">
-        <f>IF((B101=""),"",VLOOKUP(B101,Events!$B$2:$E$126,4,FALSE))</f>
+        <f>IF((B101=""),"",VLOOKUP(B101,Events!$B$2:$E$124,4,FALSE))</f>
         <v/>
       </c>
       <c r="E101" s="3">
@@ -9100,7 +9020,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{104E34E7-1558-4F0E-B347-AA979B498781}">
           <x14:formula1>
-            <xm:f>Events!$B$2:$B$126</xm:f>
+            <xm:f>Events!$B$2:$B$124</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B101</xm:sqref>
         </x14:dataValidation>
@@ -9114,7 +9034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -9168,13 +9088,13 @@
         <v>Initial Review of "Draft" Initial Project Description is POSITIVE</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -9192,13 +9112,13 @@
         <v>Initial Review of "Draft" Initial Project Description is NEGATIVE</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -9216,13 +9136,13 @@
         <v>Initial Review of "Draft" Initial Project Description is NEGATIVE</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -9240,13 +9160,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -9264,13 +9184,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G6" s="3">
         <v>6</v>
@@ -9288,13 +9208,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G7" s="3">
         <v>7</v>
@@ -9312,13 +9232,13 @@
         <v>Starts the "clock" for EAC Assessment</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
@@ -9336,13 +9256,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="3">
         <v>9</v>
@@ -9360,13 +9280,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -9384,13 +9304,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G11" s="3">
         <v>12</v>
@@ -9408,13 +9328,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G12" s="3">
         <v>13</v>
@@ -9432,13 +9352,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G13" s="3">
         <v>14</v>
@@ -9456,13 +9376,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G14" s="3">
         <v>16</v>
@@ -9480,13 +9400,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G15" s="3">
         <v>17</v>
@@ -9504,13 +9424,13 @@
         <v>End of Early Engagement PHASE, start of DPD Development (Proponent Time) PHASE</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G16" s="3">
         <v>18</v>
@@ -9528,13 +9448,13 @@
         <v>Draft Detailed Project Description Initial Review is POSITIVE</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G17" s="3">
         <v>19</v>
@@ -9552,13 +9472,13 @@
         <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G18" s="3">
         <v>20</v>
@@ -9576,13 +9496,13 @@
         <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G19" s="3">
         <v>21</v>
@@ -9600,13 +9520,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="3">
         <v>22</v>
@@ -9624,13 +9544,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G21" s="3">
         <v>23</v>
@@ -9648,13 +9568,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G22" s="3">
         <v>25</v>
@@ -9672,13 +9592,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G23" s="3">
         <v>26</v>
@@ -9696,13 +9616,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G24" s="3">
         <v>27</v>
@@ -9720,13 +9640,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G25" s="3">
         <v>29</v>
@@ -9744,13 +9664,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G26" s="3">
         <v>30</v>
@@ -9768,13 +9688,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G27" s="3">
         <v>31</v>
@@ -9792,13 +9712,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G28" s="3">
         <v>32</v>
@@ -9816,13 +9736,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G29" s="3">
         <v>33</v>
@@ -9840,13 +9760,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G30" s="3">
         <v>34</v>
@@ -9864,13 +9784,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G31" s="3">
         <v>35</v>
@@ -9888,13 +9808,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G32" s="3">
         <v>37</v>
@@ -9912,13 +9832,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G33" s="3">
         <v>38</v>
@@ -9936,13 +9856,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G34" s="3">
         <v>40</v>
@@ -9960,13 +9880,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G35" s="3">
         <v>41</v>
@@ -9984,13 +9904,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G36" s="3">
         <v>42</v>
@@ -10008,13 +9928,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G37" s="3">
         <v>44</v>
@@ -10032,13 +9952,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G38" s="3">
         <v>45</v>
@@ -10056,13 +9976,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G39" s="3">
         <v>46</v>
@@ -10080,13 +10000,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G40" s="3">
         <v>48</v>
@@ -10104,13 +10024,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G41" s="3">
         <v>49</v>
@@ -10128,13 +10048,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G42" s="3">
         <v>50</v>
@@ -10152,13 +10072,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G43" s="3">
         <v>52</v>
@@ -10176,13 +10096,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G44" s="3">
         <v>53</v>
@@ -10200,13 +10120,13 @@
         <v>Project is Exempt from Requiring an EAC</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G45" s="3">
         <v>54</v>
@@ -10224,13 +10144,13 @@
         <v>Project is Exempt from Requiring an EAC</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G46" s="3">
         <v>55</v>
@@ -10248,13 +10168,13 @@
         <v>Refer the Project to the CEAO for Further Decision</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G47" s="3">
         <v>56</v>
@@ -10272,13 +10192,13 @@
         <v>Refer the Project to the CEAO for Further Decision</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G48" s="3">
         <v>57</v>
@@ -10296,13 +10216,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G49" s="3">
         <v>58</v>
@@ -10320,13 +10240,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G50" s="3">
         <v>60</v>
@@ -10344,13 +10264,13 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G51" s="3">
         <v>61</v>
@@ -10368,13 +10288,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G52" s="3">
         <v>62</v>
@@ -10392,13 +10312,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G53" s="3">
         <v>64</v>
@@ -10416,13 +10336,13 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G54" s="3">
         <v>65</v>
@@ -10440,13 +10360,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G55" s="3">
         <v>66</v>
@@ -10464,13 +10384,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G56" s="3">
         <v>67</v>
@@ -10488,13 +10408,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G57" s="3">
         <v>68</v>
@@ -10512,13 +10432,13 @@
         <v>Project moves to Process Planning</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G58" s="3">
         <v>69</v>
@@ -10536,13 +10456,13 @@
         <v>Project moves to Process Planning</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G59" s="3">
         <v>70</v>
@@ -10587,10 +10507,10 @@
         <v>Project is Referred to Minister for Exemption</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>66</v>

--- a/epictrack-api/src/api/templates/event_templates/exemption_request/001_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/001_Exemption_Request.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CAA68F-6AC4-4C54-8096-73C5458CFAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98E8FC9-690C-463E-96C1-8FD9D7EC3D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="269">
   <si>
     <t>No</t>
   </si>
@@ -916,9 +916,6 @@
     <t>addPhase "DPD Development (Proponent Time)" (copy of the origal PHASE)</t>
   </si>
   <si>
-    <t>addPhase "Readiness Decision" (copy of the origal PHASE)</t>
-  </si>
-  <si>
     <t>Set "DPD Development (Proponent Time) | Start of Detailed Project Description Development" ACTUAL to thisEventActual +1</t>
   </si>
   <si>
@@ -1000,12 +997,6 @@
     <t>{"phase_name":"Exemption Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Decision: Readiness Decision" }</t>
   </si>
   <si>
-    <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "new_name": "Exemption DPD Development (Proponent Time)", "legislated": false }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Exemption Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Exemption Readiness Decision", "legislated": false }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Start of DPD Development (Proponent Time) (Date Capture Milestone)", "start_at": 1 }</t>
   </si>
   <si>
@@ -1015,25 +1006,25 @@
     <t>{"work_state": "COMPLETED"}</t>
   </si>
   <si>
-    <t>{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Further Readiness Decision", "legislated": false }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Readiness Decision Report referred to CEAO for Further Decision", "start_at": 1}</t>
   </si>
   <si>
     <t>{"work_type": 6}</t>
   </si>
   <si>
-    <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "new_name": "Revised Exemption DPD Development (Proponent Time)", "legislated": false }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Exemption Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Revised Exemption Readiness Decision", "legislated": false }</t>
-  </si>
-  <si>
     <t>Exemption Order</t>
   </si>
   <si>
     <t>{"phase_name":"Exemption Request Intake","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Initial Project Description &amp; Engagement Plan", "start_at": 21 }</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "new_name": "Revised Exemption DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Exemption Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Revised Exemption Readiness Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Revised Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Start of DPD Development (Proponent Time) (Date Capture Milestone)", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Further Readiness Decision", "legislated": false }]</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1721,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1744,7 +1735,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -1759,7 +1750,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1773,7 +1764,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
@@ -1788,7 +1779,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -1802,7 +1793,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -1817,7 +1808,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -1831,7 +1822,7 @@
         <v>111</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -1846,7 +1837,7 @@
         <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -1860,7 +1851,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -1875,7 +1866,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I6" s="3">
         <v>5</v>
@@ -1889,7 +1880,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -1904,7 +1895,7 @@
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
@@ -2390,7 +2381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2447,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -2486,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
@@ -2525,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N3" s="3">
         <v>2</v>
@@ -2564,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N4" s="3">
         <v>3</v>
@@ -2606,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N5" s="3">
         <v>4</v>
@@ -2645,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N6" s="3">
         <v>5</v>
@@ -2684,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N7" s="3">
         <v>6</v>
@@ -2726,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N8" s="3">
         <v>7</v>
@@ -2768,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N9" s="3">
         <v>8</v>
@@ -2807,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N10" s="3">
         <v>9</v>
@@ -2849,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N11" s="3">
         <v>10</v>
@@ -2888,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N12" s="3">
         <v>11</v>
@@ -2927,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N13" s="3">
         <v>12</v>
@@ -2969,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N14" s="3">
         <v>13</v>
@@ -3011,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N15" s="3">
         <v>14</v>
@@ -3053,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N16" s="3">
         <v>15</v>
@@ -3092,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N17" s="3">
         <v>16</v>
@@ -3131,7 +3122,7 @@
         <v>30</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N18" s="3">
         <v>17</v>
@@ -3173,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N19" s="3">
         <v>18</v>
@@ -3215,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N20" s="3">
         <v>19</v>
@@ -3257,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N21" s="3">
         <v>20</v>
@@ -3299,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N22" s="3">
         <v>21</v>
@@ -3338,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N23" s="3">
         <v>22</v>
@@ -3380,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N24" s="3">
         <v>23</v>
@@ -3419,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N25" s="3">
         <v>24</v>
@@ -3461,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N26" s="3">
         <v>25</v>
@@ -3500,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N27" s="3">
         <v>26</v>
@@ -3539,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N28" s="3">
         <v>27</v>
@@ -3581,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N29" s="3">
         <v>28</v>
@@ -3620,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N30" s="3">
         <v>29</v>
@@ -3659,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N31" s="3">
         <v>30</v>
@@ -3701,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N32" s="3">
         <v>31</v>
@@ -3743,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N33" s="3">
         <v>32</v>
@@ -3785,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N34" s="3">
         <v>33</v>
@@ -3827,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N35" s="3">
         <v>34</v>
@@ -3866,7 +3857,7 @@
         <v>30</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N36" s="3">
         <v>35</v>
@@ -3908,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N37" s="3">
         <v>36</v>
@@ -3950,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N38" s="3">
         <v>37</v>
@@ -3992,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N39" s="3">
         <v>38</v>
@@ -4034,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N40" s="3">
         <v>39</v>
@@ -4073,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N41" s="3">
         <v>40</v>
@@ -4112,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N42" s="3">
         <v>41</v>
@@ -4151,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N43" s="3">
         <v>42</v>
@@ -4193,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N44" s="3">
         <v>43</v>
@@ -4235,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N45" s="3">
         <v>44</v>
@@ -4274,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N46" s="3">
         <v>45</v>
@@ -4316,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N47" s="3">
         <v>46</v>
@@ -4358,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N48" s="3">
         <v>47</v>
@@ -4400,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N49" s="3">
         <v>49</v>
@@ -4442,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N50" s="3">
         <v>50</v>
@@ -4484,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N51" s="3">
         <v>52</v>
@@ -4526,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N52" s="3">
         <v>53</v>
@@ -4568,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N53" s="3">
         <v>54</v>
@@ -4610,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N54" s="3">
         <v>55</v>
@@ -4652,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N55" s="3">
         <v>56</v>
@@ -4694,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N56" s="3">
         <v>57</v>
@@ -4736,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N57" s="3">
         <v>58</v>
@@ -4778,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N58" s="3">
         <v>59</v>
@@ -4817,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N59" s="3">
         <v>60</v>
@@ -4859,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N60" s="3">
         <v>61</v>
@@ -4901,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N61" s="3">
         <v>62</v>
@@ -4943,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N62" s="3">
         <v>63</v>
@@ -4982,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N63" s="3">
         <v>64</v>
@@ -5021,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N64" s="3">
         <v>65</v>
@@ -5060,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N65" s="3">
         <v>66</v>
@@ -5102,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N66" s="3">
         <v>67</v>
@@ -5144,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N67" s="3">
         <v>68</v>
@@ -5183,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N68" s="3">
         <v>69</v>
@@ -5225,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N69" s="3">
         <v>70</v>
@@ -5267,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N70" s="3">
         <v>71</v>
@@ -5309,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N71" s="3">
         <v>72</v>
@@ -5351,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N72" s="3">
         <v>73</v>
@@ -5393,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N73" s="3">
         <v>74</v>
@@ -5435,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N74" s="3">
         <v>75</v>
@@ -5477,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N75" s="3">
         <v>76</v>
@@ -5519,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N76" s="3">
         <v>77</v>
@@ -5561,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N77" s="3">
         <v>78</v>
@@ -5600,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N78" s="3">
         <v>79</v>
@@ -5639,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N79" s="3">
         <v>80</v>
@@ -5678,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N80" s="3">
         <v>81</v>
@@ -5720,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N81" s="3">
         <v>82</v>
@@ -5762,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N82" s="3">
         <v>83</v>
@@ -5801,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N83" s="3">
         <v>84</v>
@@ -5840,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N84" s="3">
         <v>85</v>
@@ -5882,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N85" s="3">
         <v>86</v>
@@ -5924,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N86" s="3">
         <v>87</v>
@@ -5966,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N87" s="3">
         <v>88</v>
@@ -6008,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N88" s="3">
         <v>89</v>
@@ -6047,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N89" s="3">
         <v>90</v>
@@ -6086,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N90" s="3">
         <v>91</v>
@@ -6128,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N91" s="3">
         <v>92</v>
@@ -6170,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N92" s="3">
         <v>93</v>
@@ -6212,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N93" s="3">
         <v>94</v>
@@ -6254,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N94" s="3">
         <v>95</v>
@@ -6296,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N95" s="3">
         <v>96</v>
@@ -6338,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N96" s="3">
         <v>97</v>
@@ -6380,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N97" s="3">
         <v>98</v>
@@ -6422,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N98" s="3">
         <v>99</v>
@@ -6464,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N99" s="3">
         <v>100</v>
@@ -6503,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N100" s="3">
         <v>101</v>
@@ -6517,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F101" s="6" t="str">
         <f>IF((D101=""),"",VLOOKUP(D101,Phases!$A$2:$B$7,2,FALSE))</f>
@@ -6542,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N101" s="3">
         <v>102</v>
@@ -6581,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N102" s="3">
         <v>103</v>
@@ -6620,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N103" s="3">
         <v>104</v>
@@ -6662,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N104" s="3">
         <v>105</v>
@@ -6704,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N105" s="3">
         <v>106</v>
@@ -6746,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N106" s="3">
         <v>107</v>
@@ -6788,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N107" s="3">
         <v>108</v>
@@ -6830,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N108" s="3">
         <v>109</v>
@@ -6872,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N109" s="3">
         <v>110</v>
@@ -6911,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N110" s="3">
         <v>111</v>
@@ -6953,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N111" s="3">
         <v>112</v>
@@ -6995,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N112" s="3">
         <v>113</v>
@@ -7034,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N113" s="3">
         <v>114</v>
@@ -7073,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N114" s="3">
         <v>115</v>
@@ -7115,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N115" s="3">
         <v>116</v>
@@ -7157,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N116" s="3">
         <v>117</v>
@@ -7199,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N117" s="3">
         <v>118</v>
@@ -7241,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N118" s="3">
         <v>119</v>
@@ -7283,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N119" s="3">
         <v>120</v>
@@ -7325,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N120" s="3">
         <v>121</v>
@@ -7364,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N121" s="3">
         <v>122</v>
@@ -7406,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N122" s="3">
         <v>123</v>
@@ -7448,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N123" s="3">
         <v>124</v>
@@ -7490,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N124" s="3">
         <v>125</v>
@@ -9032,13 +9023,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9094,7 +9085,7 @@
         <v>209</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -9118,7 +9109,7 @@
         <v>211</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -9142,7 +9133,7 @@
         <v>212</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -9166,7 +9157,7 @@
         <v>214</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -9190,7 +9181,7 @@
         <v>218</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G6" s="3">
         <v>6</v>
@@ -9214,7 +9205,7 @@
         <v>220</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G7" s="3">
         <v>7</v>
@@ -9238,7 +9229,7 @@
         <v>222</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
@@ -9262,7 +9253,7 @@
         <v>224</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G9" s="3">
         <v>9</v>
@@ -9286,7 +9277,7 @@
         <v>214</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -9310,7 +9301,7 @@
         <v>225</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="3">
         <v>12</v>
@@ -9334,7 +9325,7 @@
         <v>220</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="3">
         <v>13</v>
@@ -9358,7 +9349,7 @@
         <v>214</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="3">
         <v>14</v>
@@ -9382,7 +9373,7 @@
         <v>218</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G14" s="3">
         <v>16</v>
@@ -9406,7 +9397,7 @@
         <v>220</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G15" s="3">
         <v>17</v>
@@ -9430,7 +9421,7 @@
         <v>226</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G16" s="3">
         <v>18</v>
@@ -9454,7 +9445,7 @@
         <v>227</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G17" s="3">
         <v>19</v>
@@ -9478,7 +9469,7 @@
         <v>228</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G18" s="3">
         <v>20</v>
@@ -9502,7 +9493,7 @@
         <v>229</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G19" s="3">
         <v>21</v>
@@ -9526,7 +9517,7 @@
         <v>224</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G20" s="3">
         <v>22</v>
@@ -9550,7 +9541,7 @@
         <v>214</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G21" s="3">
         <v>23</v>
@@ -9574,7 +9565,7 @@
         <v>225</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G22" s="3">
         <v>25</v>
@@ -9598,7 +9589,7 @@
         <v>220</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G23" s="3">
         <v>26</v>
@@ -9622,7 +9613,7 @@
         <v>214</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G24" s="3">
         <v>27</v>
@@ -9646,7 +9637,7 @@
         <v>218</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G25" s="3">
         <v>29</v>
@@ -9670,7 +9661,7 @@
         <v>220</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" s="3">
         <v>30</v>
@@ -9694,7 +9685,7 @@
         <v>216</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G27" s="3">
         <v>31</v>
@@ -9712,13 +9703,13 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G28" s="3">
         <v>32</v>
@@ -9742,7 +9733,7 @@
         <v>231</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G29" s="3">
         <v>33</v>
@@ -9750,7 +9741,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="8">
         <v>14</v>
@@ -9760,69 +9751,69 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G30" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C31" s="6" t="str">
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>233</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G31" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="6" t="str">
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G32" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" s="8">
         <v>17</v>
@@ -9832,21 +9823,21 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G33" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="8">
         <v>17</v>
@@ -9856,45 +9847,45 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G34" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" s="6" t="str">
         <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G35" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="8">
         <v>18</v>
@@ -9904,21 +9895,21 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G36" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="8">
         <v>18</v>
@@ -9928,45 +9919,45 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>249</v>
       </c>
       <c r="G37" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38" s="6" t="str">
         <f>IF((B38=""),"",VLOOKUP(B38,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G38" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" s="8">
         <v>19</v>
@@ -9976,21 +9967,21 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G39" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="8">
         <v>19</v>
@@ -10000,45 +9991,45 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G40" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41" s="6" t="str">
         <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G41" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" s="8">
         <v>20</v>
@@ -10048,21 +10039,21 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G42" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="8">
         <v>20</v>
@@ -10072,45 +10063,45 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>249</v>
       </c>
       <c r="G43" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" s="6" t="str">
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Project is Exempt from Requiring an EAC</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="G44" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="8">
         <v>21</v>
@@ -10120,45 +10111,45 @@
         <v>Project is Exempt from Requiring an EAC</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G45" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46" s="6" t="str">
         <f>IF((B46=""),"",VLOOKUP(B46,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project is Exempt from Requiring an EAC</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>220</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="G46" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="8">
         <v>22</v>
@@ -10168,45 +10159,45 @@
         <v>Refer the Project to the CEAO for Further Decision</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G47" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" s="6" t="str">
         <f>IF((B48=""),"",VLOOKUP(B48,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>240</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>214</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="G48" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="8">
         <v>23</v>
@@ -10216,21 +10207,21 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G49" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="8">
         <v>23</v>
@@ -10240,45 +10231,45 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G50" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C51" s="6" t="str">
         <f>IF((B51=""),"",VLOOKUP(B51,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G51" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" s="8">
         <v>24</v>
@@ -10288,21 +10279,21 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G52" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="8">
         <v>24</v>
@@ -10312,45 +10303,45 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>249</v>
       </c>
       <c r="G53" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" s="6" t="str">
         <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>220</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G54" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55" s="8">
         <v>25</v>
@@ -10360,111 +10351,63 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G55" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C56" s="6" t="str">
         <f>IF((B56=""),"",VLOOKUP(B56,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Project moves to Process Planning</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G56" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C57" s="6" t="str">
         <f>IF((B57=""),"",VLOOKUP(B57,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Project moves to Process Planning</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G57" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>69</v>
-      </c>
-      <c r="B58" s="8">
-        <v>26</v>
-      </c>
-      <c r="C58" s="6" t="str">
-        <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project moves to Process Planning</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G58" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>70</v>
-      </c>
-      <c r="B59" s="8">
-        <v>26</v>
-      </c>
-      <c r="C59" s="6" t="str">
-        <f>IF((B59=""),"",VLOOKUP(B59,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project moves to Process Planning</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G59" s="3">
         <v>70</v>
       </c>
     </row>
@@ -10477,7 +10420,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B59</xm:sqref>
+          <xm:sqref>B2:B57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10507,10 +10450,10 @@
         <v>Project is Referred to Minister for Exemption</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>66</v>

--- a/epictrack-api/src/api/templates/event_templates/exemption_request/001_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/001_Exemption_Request.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98E8FC9-690C-463E-96C1-8FD9D7EC3D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9858A52B-E8D0-4C3E-A50C-7186E155EAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="265">
   <si>
     <t>No</t>
   </si>
@@ -853,12 +853,6 @@
     <t>AddEvent</t>
   </si>
   <si>
-    <t>Add a copy of "Submission of "Draft" Initial Project Description &amp; Engagement Plan" to thisPhase at thisEventACTUAL +21</t>
-  </si>
-  <si>
-    <t>Add a copy of ""Draft" Initial Project Description &amp; Engagement Plan Initial Review" to thisPhase at thisEventACTUAL +28</t>
-  </si>
-  <si>
     <t>SetPhasesStatus</t>
   </si>
   <si>
@@ -904,12 +898,6 @@
     <t>Set ANTICIPATED of "Readiness Decision | Detailed Project Description Received" to thisEventACTUAL +1</t>
   </si>
   <si>
-    <t>Add a copy of "Submission of Detailed Project Description" to thisPhase at thisEventACTUAL +21</t>
-  </si>
-  <si>
-    <t>Add a copy of ""Draft" Detailed Project Description Initial Review" to thisPhase at thisEventACTUAL +28</t>
-  </si>
-  <si>
     <t>AddPhase</t>
   </si>
   <si>
@@ -958,9 +946,6 @@
     <t>{"phase_name":"Exemption Early Engagement","work_type_id": 5, "ea_act_id": 3, "event_name": "Approval of IPD/EP Submission", "start_at": 1 }</t>
   </si>
   <si>
-    <t>{"phase_name":"Exemption Request Intake","work_type_id": 5, "ea_act_id": 3, "event_name": "\"Draft\" Initial Project Description &amp; Engagement Plan Initial Review", "start_at": 28 }</t>
-  </si>
-  <si>
     <t>{"all_future_phases":false}</t>
   </si>
   <si>
@@ -985,12 +970,6 @@
     <t>{"phase_name":"Exemption Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Detailed Project Description Received", "start_at": 1}</t>
   </si>
   <si>
-    <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Detailed Project Description", "start_at": 21 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "\"Draft\" Detailed Project Description Initial Review", "start_at": 28 }</t>
-  </si>
-  <si>
     <t>HIDDEN</t>
   </si>
   <si>
@@ -1015,9 +994,6 @@
     <t>Exemption Order</t>
   </si>
   <si>
-    <t>{"phase_name":"Exemption Request Intake","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Initial Project Description &amp; Engagement Plan", "start_at": 21 }</t>
-  </si>
-  <si>
     <t>[{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "new_name": "Revised Exemption DPD Development (Proponent Time)", "legislated": false },{"phase_name":"Exemption Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Revised Exemption Readiness Decision", "legislated": false }]</t>
   </si>
   <si>
@@ -1025,6 +1001,18 @@
   </si>
   <si>
     <t>[{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Further Readiness Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Exemption Request Intake","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Initial Project Description &amp; Engagement Plan", "start_at": 21 },{"phase_name":"Exemption Request Intake","work_type_id": 5, "ea_act_id": 3, "event_name": "\"Draft\" Initial Project Description &amp; Engagement Plan Initial Review", "start_at": 7 }]</t>
+  </si>
+  <si>
+    <t>Add a copy of "Submission of "Draft" Initial Project Description &amp; Engagement Plan", "Draft" Initial Project Description &amp; Engagement Plan Initial Review to thisPhase at thisEventACTUAL +21</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Detailed Project Description", "start_at": 21 },{"phase_name":"Exemption DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "\"Draft\" Detailed Project Description Initial Review", "start_at": 7 }]</t>
+  </si>
+  <si>
+    <t>Add a copy of "Submission of Detailed Project Description", "Draft" Detailed Project Description Initial Review" to thisPhase at thisEventACTUAL +21</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1709,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1735,7 +1723,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -1750,7 +1738,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1764,7 +1752,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
@@ -1779,7 +1767,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -1793,7 +1781,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -1808,7 +1796,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -1822,7 +1810,7 @@
         <v>111</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -1837,7 +1825,7 @@
         <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -1851,7 +1839,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -1866,7 +1854,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I6" s="3">
         <v>5</v>
@@ -1880,7 +1868,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -1895,7 +1883,7 @@
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
@@ -2438,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -2477,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
@@ -2516,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N3" s="3">
         <v>2</v>
@@ -2555,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N4" s="3">
         <v>3</v>
@@ -2597,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N5" s="3">
         <v>4</v>
@@ -2636,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N6" s="3">
         <v>5</v>
@@ -2675,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N7" s="3">
         <v>6</v>
@@ -2717,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N8" s="3">
         <v>7</v>
@@ -2759,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N9" s="3">
         <v>8</v>
@@ -2798,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N10" s="3">
         <v>9</v>
@@ -2840,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N11" s="3">
         <v>10</v>
@@ -2879,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N12" s="3">
         <v>11</v>
@@ -2918,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N13" s="3">
         <v>12</v>
@@ -2960,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N14" s="3">
         <v>13</v>
@@ -3002,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N15" s="3">
         <v>14</v>
@@ -3044,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N16" s="3">
         <v>15</v>
@@ -3083,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N17" s="3">
         <v>16</v>
@@ -3122,7 +3110,7 @@
         <v>30</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N18" s="3">
         <v>17</v>
@@ -3164,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N19" s="3">
         <v>18</v>
@@ -3206,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N20" s="3">
         <v>19</v>
@@ -3248,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N21" s="3">
         <v>20</v>
@@ -3290,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N22" s="3">
         <v>21</v>
@@ -3329,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N23" s="3">
         <v>22</v>
@@ -3371,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N24" s="3">
         <v>23</v>
@@ -3410,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N25" s="3">
         <v>24</v>
@@ -3452,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N26" s="3">
         <v>25</v>
@@ -3491,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N27" s="3">
         <v>26</v>
@@ -3530,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N28" s="3">
         <v>27</v>
@@ -3572,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N29" s="3">
         <v>28</v>
@@ -3611,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N30" s="3">
         <v>29</v>
@@ -3650,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N31" s="3">
         <v>30</v>
@@ -3692,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N32" s="3">
         <v>31</v>
@@ -3734,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N33" s="3">
         <v>32</v>
@@ -3776,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N34" s="3">
         <v>33</v>
@@ -3818,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N35" s="3">
         <v>34</v>
@@ -3857,7 +3845,7 @@
         <v>30</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N36" s="3">
         <v>35</v>
@@ -3899,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N37" s="3">
         <v>36</v>
@@ -3941,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N38" s="3">
         <v>37</v>
@@ -3983,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N39" s="3">
         <v>38</v>
@@ -4025,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N40" s="3">
         <v>39</v>
@@ -4064,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N41" s="3">
         <v>40</v>
@@ -4103,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N42" s="3">
         <v>41</v>
@@ -4142,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N43" s="3">
         <v>42</v>
@@ -4184,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N44" s="3">
         <v>43</v>
@@ -4226,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N45" s="3">
         <v>44</v>
@@ -4265,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N46" s="3">
         <v>45</v>
@@ -4307,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N47" s="3">
         <v>46</v>
@@ -4349,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N48" s="3">
         <v>47</v>
@@ -4391,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N49" s="3">
         <v>49</v>
@@ -4433,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N50" s="3">
         <v>50</v>
@@ -4475,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N51" s="3">
         <v>52</v>
@@ -4517,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N52" s="3">
         <v>53</v>
@@ -4559,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N53" s="3">
         <v>54</v>
@@ -4601,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N54" s="3">
         <v>55</v>
@@ -4643,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N55" s="3">
         <v>56</v>
@@ -4685,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N56" s="3">
         <v>57</v>
@@ -4727,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N57" s="3">
         <v>58</v>
@@ -4769,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N58" s="3">
         <v>59</v>
@@ -4808,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N59" s="3">
         <v>60</v>
@@ -4850,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N60" s="3">
         <v>61</v>
@@ -4892,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N61" s="3">
         <v>62</v>
@@ -4934,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N62" s="3">
         <v>63</v>
@@ -4973,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N63" s="3">
         <v>64</v>
@@ -5012,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N64" s="3">
         <v>65</v>
@@ -5051,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N65" s="3">
         <v>66</v>
@@ -5093,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N66" s="3">
         <v>67</v>
@@ -5135,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N67" s="3">
         <v>68</v>
@@ -5174,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N68" s="3">
         <v>69</v>
@@ -5216,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N69" s="3">
         <v>70</v>
@@ -5258,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N70" s="3">
         <v>71</v>
@@ -5300,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N71" s="3">
         <v>72</v>
@@ -5342,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N72" s="3">
         <v>73</v>
@@ -5384,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N73" s="3">
         <v>74</v>
@@ -5426,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N74" s="3">
         <v>75</v>
@@ -5468,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N75" s="3">
         <v>76</v>
@@ -5510,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N76" s="3">
         <v>77</v>
@@ -5552,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N77" s="3">
         <v>78</v>
@@ -5591,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N78" s="3">
         <v>79</v>
@@ -5630,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N79" s="3">
         <v>80</v>
@@ -5669,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N80" s="3">
         <v>81</v>
@@ -5711,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N81" s="3">
         <v>82</v>
@@ -5753,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N82" s="3">
         <v>83</v>
@@ -5792,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N83" s="3">
         <v>84</v>
@@ -5831,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N84" s="3">
         <v>85</v>
@@ -5873,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N85" s="3">
         <v>86</v>
@@ -5915,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N86" s="3">
         <v>87</v>
@@ -5957,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N87" s="3">
         <v>88</v>
@@ -5999,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N88" s="3">
         <v>89</v>
@@ -6038,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N89" s="3">
         <v>90</v>
@@ -6077,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N90" s="3">
         <v>91</v>
@@ -6119,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N91" s="3">
         <v>92</v>
@@ -6161,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N92" s="3">
         <v>93</v>
@@ -6203,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N93" s="3">
         <v>94</v>
@@ -6245,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N94" s="3">
         <v>95</v>
@@ -6287,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N95" s="3">
         <v>96</v>
@@ -6329,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N96" s="3">
         <v>97</v>
@@ -6371,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N97" s="3">
         <v>98</v>
@@ -6413,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N98" s="3">
         <v>99</v>
@@ -6455,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N99" s="3">
         <v>100</v>
@@ -6494,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N100" s="3">
         <v>101</v>
@@ -6508,7 +6496,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F101" s="6" t="str">
         <f>IF((D101=""),"",VLOOKUP(D101,Phases!$A$2:$B$7,2,FALSE))</f>
@@ -6533,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N101" s="3">
         <v>102</v>
@@ -6572,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N102" s="3">
         <v>103</v>
@@ -6611,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N103" s="3">
         <v>104</v>
@@ -6653,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N104" s="3">
         <v>105</v>
@@ -6695,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N105" s="3">
         <v>106</v>
@@ -6737,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N106" s="3">
         <v>107</v>
@@ -6779,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N107" s="3">
         <v>108</v>
@@ -6821,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N108" s="3">
         <v>109</v>
@@ -6863,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N109" s="3">
         <v>110</v>
@@ -6902,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N110" s="3">
         <v>111</v>
@@ -6944,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N111" s="3">
         <v>112</v>
@@ -6986,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N112" s="3">
         <v>113</v>
@@ -7025,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N113" s="3">
         <v>114</v>
@@ -7064,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N114" s="3">
         <v>115</v>
@@ -7106,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N115" s="3">
         <v>116</v>
@@ -7148,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N116" s="3">
         <v>117</v>
@@ -7190,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N117" s="3">
         <v>118</v>
@@ -7232,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N118" s="3">
         <v>119</v>
@@ -7274,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N119" s="3">
         <v>120</v>
@@ -7316,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N120" s="3">
         <v>121</v>
@@ -7355,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N121" s="3">
         <v>122</v>
@@ -7397,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N122" s="3">
         <v>123</v>
@@ -7439,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N123" s="3">
         <v>124</v>
@@ -7481,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N124" s="3">
         <v>125</v>
@@ -9023,13 +9011,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55:XFD55"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9085,7 +9073,7 @@
         <v>209</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -9106,10 +9094,10 @@
         <v>210</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -9117,31 +9105,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
         <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>IF((B4=""),"",VLOOKUP(B4,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Initial Review of "Draft" Initial Project Description is NEGATIVE</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>210</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
@@ -9151,21 +9139,21 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="8">
         <v>3</v>
@@ -9181,46 +9169,46 @@
         <v>218</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G6" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>IF((B7=""),"",VLOOKUP(B7,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Starts the "clock" for EAC Assessment</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="29" t="s">
         <v>220</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G7" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>IF((B8=""),"",VLOOKUP(B8,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Starts the "clock" for EAC Assessment</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>221</v>
@@ -9229,39 +9217,39 @@
         <v>222</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G8" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>IF((B9=""),"",VLOOKUP(B9,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G9" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8">
         <v>6</v>
@@ -9271,21 +9259,21 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>247</v>
       </c>
       <c r="G10" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8">
         <v>6</v>
@@ -9298,42 +9286,42 @@
         <v>217</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G11" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6" t="str">
         <f>IF((B12=""),"",VLOOKUP(B12,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G12" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8">
         <v>7</v>
@@ -9343,21 +9331,21 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G13" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8">
         <v>7</v>
@@ -9373,159 +9361,159 @@
         <v>218</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G14" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>IF((B15=""),"",VLOOKUP(B15,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>220</v>
+        <v>End of Early Engagement PHASE, start of DPD Development (Proponent Time) PHASE</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G15" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>IF((B16=""),"",VLOOKUP(B16,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>End of Early Engagement PHASE, start of DPD Development (Proponent Time) PHASE</v>
+        <v>Draft Detailed Project Description Initial Review is POSITIVE</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>208</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G16" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Draft Detailed Project Description Initial Review is POSITIVE</v>
+        <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G17" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="6" t="str">
         <f>IF((B18=""),"",VLOOKUP(B18,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>228</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>222</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G18" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Draft Detailed Project Description Initial Review is NEGATIVE</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>229</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G19" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="6" t="str">
         <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>224</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G20" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" s="8">
         <v>12</v>
@@ -9535,69 +9523,69 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G21" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G22" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G23" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8">
         <v>13</v>
@@ -9607,69 +9595,69 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G24" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="6" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>217</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D25" t="s">
+        <v>213</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G25" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="6" t="str">
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>220</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G26" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8">
         <v>14</v>
@@ -9678,22 +9666,22 @@
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$101,4,FALSE))</f>
         <v>Proponent must submit a Revised DPD</v>
       </c>
-      <c r="D27" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>216</v>
+      <c r="D27" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G27" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8">
         <v>14</v>
@@ -9703,93 +9691,93 @@
         <v>Proponent must submit a Revised DPD</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G28" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C29" s="6" t="str">
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>231</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>222</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G29" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C30" s="6" t="str">
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>232</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="G30" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B31" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="6" t="str">
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D31" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>224</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G31" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32" s="8">
         <v>17</v>
@@ -9799,69 +9787,69 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G32" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="6" t="str">
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G33" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="6" t="str">
         <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G34" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B35" s="8">
         <v>18</v>
@@ -9871,69 +9859,69 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G35" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" s="6" t="str">
         <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G36" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="6" t="str">
         <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G37" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B38" s="8">
         <v>19</v>
@@ -9943,69 +9931,69 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G38" s="3">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C39" s="6" t="str">
         <f>IF((B39=""),"",VLOOKUP(B39,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G39" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B40" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" s="6" t="str">
         <f>IF((B40=""),"",VLOOKUP(B40,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G40" s="3">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B41" s="8">
         <v>20</v>
@@ -10015,165 +10003,165 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G41" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="6" t="str">
         <f>IF((B42=""),"",VLOOKUP(B42,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Project is Exempt from Requiring an EAC</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G42" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43" s="6" t="str">
         <f>IF((B43=""),"",VLOOKUP(B43,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
+        <v>Project is Exempt from Requiring an EAC</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G43" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C44" s="6" t="str">
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project is Exempt from Requiring an EAC</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" s="29" t="s">
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="G44" s="3">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C45" s="6" t="str">
         <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project is Exempt from Requiring an EAC</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>220</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G45" s="3">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C46" s="6" t="str">
         <f>IF((B46=""),"",VLOOKUP(B46,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>238</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="G46" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B47" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="6" t="str">
         <f>IF((B47=""),"",VLOOKUP(B47,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>239</v>
+        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="G47" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B48" s="8">
         <v>23</v>
@@ -10183,69 +10171,69 @@
         <v>Exemption Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G48" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49" s="6" t="str">
         <f>IF((B49=""),"",VLOOKUP(B49,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G49" s="3">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B50" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" s="6" t="str">
         <f>IF((B50=""),"",VLOOKUP(B50,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G50" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B51" s="8">
         <v>24</v>
@@ -10255,159 +10243,111 @@
         <v>Proponent withdraws Submission from the Exemption Request process</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G51" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B52" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" s="6" t="str">
         <f>IF((B52=""),"",VLOOKUP(B52,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>218</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G52" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B53" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" s="6" t="str">
         <f>IF((B53=""),"",VLOOKUP(B53,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the Exemption Request process</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>220</v>
+        <v>Proponent must submit a Revised DPD</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G53" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B54" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" s="6" t="str">
         <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Project moves to Process Planning</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G54" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B55" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C55" s="6" t="str">
         <f>IF((B55=""),"",VLOOKUP(B55,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Proponent must submit a Revised DPD</v>
+        <v>Project moves to Process Planning</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G55" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>69</v>
-      </c>
-      <c r="B56" s="8">
-        <v>26</v>
-      </c>
-      <c r="C56" s="6" t="str">
-        <f>IF((B56=""),"",VLOOKUP(B56,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project moves to Process Planning</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>70</v>
-      </c>
-      <c r="B57" s="8">
-        <v>26</v>
-      </c>
-      <c r="C57" s="6" t="str">
-        <f>IF((B57=""),"",VLOOKUP(B57,Outcomes!$A$2:$D$101,4,FALSE))</f>
-        <v>Project moves to Process Planning</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G57" s="3">
         <v>70</v>
       </c>
     </row>
@@ -10420,7 +10360,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B57</xm:sqref>
+          <xm:sqref>B2:B55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10450,10 +10390,10 @@
         <v>Project is Referred to Minister for Exemption</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>66</v>
